--- a/example_output.xlsx
+++ b/example_output.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="442">
   <si>
     <t>parts</t>
   </si>
@@ -170,295 +170,349 @@
     <t>plasmid48</t>
   </si>
   <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + Q0VZ68 + Q57160 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + P85913 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + Q57160 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_J56012 + O82035 + Q0VZ68 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + P33751 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + P33751 + Q1LRV9 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_K1847014 + P33751 + Q3IWB0 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + P85916 + Q3IWB0 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + BBa_K1847014 + P33751 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + P33751 + Q0VZ68 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + Q08350 + Q0VZ68 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + Q08350 + Q3IWB0 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + Q0VZ68 + Q57160 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + P33751 + Q3IWB0 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + P85913 + Q3IWB0 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + P85913 + Q0VZ68 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + Q08350 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + P33751 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + Q08350 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + P85913 + Q1LRV9 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + BBa_K1847014 + P85916 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P85913 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50032 + BBa_J56012 + Q57160 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P85916 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + BBa_K1847014 + O82035 + Q1LRV9 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + Q3IWB0 + Q57160 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P33751 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P85916 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + P85916 + Q0VZ68 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + O82035 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + Q08350 + Q3IWB0 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_K1847014 + Q08350 + Q1LRV9 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_K1847014 + Q1LRV9 + Q57160 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P85913 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_K1847014 + O82035 + Q0VZ68 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_K1847014 + BBa_K1847014 + P85913 + Q0VZ68 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + O82035 + Q1LRV9 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + O82035 + Q3IWB0 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + BBa_K1847014 + O82035 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + P85916 + Q0VZ68 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + P85913 + Q3IWB0 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + P85916 + Q1LRV9 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + BBa_K1847014 + Q3IWB0 + Q57160 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O82035 + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_J56012 + BBa_J64101 + BBa_K1847014 + P85916 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J56012 + BBa_J64101 + BBa_K1847014 + Q08350 + Q1LRV9 + Ter + Ter</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + Q08350 + Ter</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_J56012 + Q1LRV9 + Q57160 + Ter + Ter</t>
+    <t>plasmid49</t>
+  </si>
+  <si>
+    <t>plasmid50</t>
+  </si>
+  <si>
+    <t>plasmid51</t>
+  </si>
+  <si>
+    <t>plasmid52</t>
+  </si>
+  <si>
+    <t>plasmid53</t>
+  </si>
+  <si>
+    <t>plasmid54</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P86029_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P86029_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P86029_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P86029_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P86029_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P86029_20000_gene</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGCTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTGATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAAATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
-  </si>
-  <si>
-    <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCGATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCTCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCTTAATAAGATGATCTTCTTGAGATCGTTTTGGTCTGCGCGTAATCTCTTGCTCTGAAAACGAAAAAACCGCCTTGCAGGGCGGTTTTTCGAAGGTTCTCTGAGCTACCAACTCTTTGAACCGAGGTAACTGGCTTGGAGGAGCGCAGTCACCAAAACTTGTCCTTTCAGTTTAGCCTTAACCGGCGCATGACTTCAAGACTAACTCCTCTAAATCAATTACCAGTGGCTGCTGCCAGTGGTGCTTTTGCATGTCTTTCCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGACTGAACGGGGGGTTCGTGCATACAGTCCAGCTTGGAGCGAACTGCCTACCCGGAACTGAGTGTCAGGCGTGGAATGAGACAAACGCGGCCATAACAGCGGAATGACACCGGTAAACCGAAAGGCAGGAACAGGAGAGCGCACGAGGGAGCCGCCAGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCACTGATTTGAGCGTCAGATTTCGTGATGCTTGTCAGGGGGGCGGAGCCTATGGAAAAACGGCTTTGCCGCGGCCCTCTCACTTCCCTGTTAAGTATCTTCCTGGCATCTTCCAGGAAATCTCCGCCCCGTTCGTAAGCCATTTCCGCTCGCCGCAGTCGAACGACCGAGCGTAGCGAGTCAGTGAGCGAGGAAGCGGAATATATCCTGTATCACATATTCTGCTGACGCACCGGTGCAGCCTTTTTTCTCCTGCCACATGAAGCACTTCACTGACACCCTCATCAGTGCCAACATAGTAAGCCAGTATACACTCCGCTAGCGCTGAGGTCTGCCTCGTGAAGAAGGTGTTGCTGACTCATACCAGGCCTGAATCGCCCCATCATCCAGCCAGAAAGTGAGGGAGCCACGGTTGATGAGAGCTTTGTTGTAGGTGGACCAGTTGGTGATTTTGAACTTTTGCTTTGCCACGGAACGGTCTGCGTTGTCGGGAAGATGCGTGATCTGATCCTTCAACTCAGCAAAAGTTCGATTTATTCAACAAAGCCACGTTGTGTCTCAAAATCTCTGATGTTACATTGCACAAGATAAAAATATATCATCATGAACAATAAAACTGTCTGCTTACATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAGTTTTCCCCCAAAAGATGAAACATTTGGGGCCAAACTGTCCATATTATACGAGCCGGATGATTAATTGTCAACCATAAAAATATTAAAAAACGACAAAAAGCATCTAACTGTTTGATATGTAAATTATTTCTATTGTAAATTAATTTCACATCACCTCCGCTATATGTAAAGCTAACGTTTCTGTGGCTCGACGCATCTTCCTCATTCTTCTCTCCAAAAACCACCTCATGCAATATAAACATCTATAAATAAAGATAACAATAGAATATTAAGCCAACAAATAAACTGAAAAAGTTTGTCCGCGATGCTTTCCTCTATGAGTCAAAATGGCCCCAATTGTCTTGTATTTATTTGTTTTTTTAACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGTATAAACGCAGAAAGGCCCACCCGAAGGTGAGCCAGTGTGACTCTAGTAGAGAGCGTTCACCGACAAACAACAGATAAAACGAAAGGCCCAGTCTTTCGACTGAGCCTTTCGTTTTATTTGATGCCTGGTACTAGTAGCGGCCGCTGCAGTCCGGCAAAAAAACGGGCAAGGTGTCACCACCCTGCCCTTTTTCTTTAAAACCGAAAAGATTACTTCGCGTTATGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATCCTAGGGCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGACTTGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGATATCAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGAAATTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGATAACTCAAAAAATACGCCCGGTAGTGATCTTATTTCATTATGGTGAAAGTTGGAACCTCTTACGTGCCGATCAACGTCTCATTTTCGCCAGATATCGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATGGTGAACAGCTTTGAATGCACCAAAAACTCGTAAAAGCTCTGATGTATCTATCTTTTTTACACCGTTTTCATCTGTGCATATGGACAGTTTTCCCTTTGATATGTAACGGTGAACAGTTGTTCTACTTTTGTTTGTTAGTCTTGATGCTTCACTGATAGATACAAGAGCCATAAGAACCTCAGATCCTTCCGTATTTAGCCAGTATGTTCTCTAGTGTGGTTCGTTGTTTTTGCGTGAGCCATGAGAACGAACCATTGAGATCATACTTACTTTGCATGTCACTCAAAAATTTTGCCTCAAAACTGGTGAGCTGAATTTTTGCAGTTAAAGCATCGTGTAGTGTTTTTCTTAGTCCGTTATGTAGGTAGGAATCTGATGTAATGGTTGTTGGTATTTTGTCACCATTCATTTTTATCTGGTTGTTCTCAAGTTCGGTTACGAGATCCATTTGTCTATCTAGTTCAACTTGGAAAATCAACGTATCAGTCGGGCGGCCTCGCTTATCAACCACCAATTTCATATTGCTGTAAGTGTTTAAATCTTTACTTATTGGTTTCAAAACCCATTGGTTAAGCCTTTTAAACTCATGGTAGTTATTTTCAAGCATTAACATGAACTTAAATTCATCAAGGCTAATCTCTATATTTGCCTTGTGAGTTTTCTTTTGTGTTAGTTCTTTTAATAACCACTCATAAATCCTCATAGAGTATTTGTTTTCAAAAGACTTAACATGTTCCAGATTATATTTTATGAATTTTTTTAACTGGAAAAGATAAGGCAATATCTCTTCACTAAAAACTAATTCTAATTTTTCGCTTGAGAACTTGGCATAGTTTGTCCACTGGAAAATCTCAAAGCCTTTAACCAAAGGATTCCTGATTTCCACAGTTCTCGTCATCAGCTCTCTGGTTGCTTTAGCTAATACACCATAAGCATTTTCCCTACTGATGTTCATCATCTGAGCGTATTGGTTATAAGTGAACGATACCGTCCGTTCTTTCCTTGTAGGGTTTTCAATCGTGGGGTTGAGTAGTGCCACACAGCATAAAATTAGCTTGGTTTCATGCTCCGTTAAGTCATAGCGACTAATCGCTAGTTCATTTGCTTTGAAAACAACTAATTCAGACATACATCTCAATTGGTCTAGGTGATTTTAATCACTATACCAATTGAGATGGGCTAGTCAATGATAATTACATGTCCTTTTCCTTTGAGTTGTGGGTATCTGTAAATTCTGCTAGACCTTTGCTGGAAAACTTGTAAATTCTGCTAGACCCTCTGTAAATTCCGCTAGACCTTTGTGTGTTTTTTTTGTTTATATTCAAGTGGTTATAATTTATAGAATAAAGAAAGAATAAAAAAAGATAAAAAGAATAGATCCCAGCCCTGTGTATAACTCACTACTTTAGTCAGTTCCGCAGTATTACAAAAGGATGTCGCAAACGCTGTTTGCTCCTCTACAAAACAGACCTTAAAACCCTAAAGGCTTAAGTAGCACCCTCGCAAGCTCGGGCAAATCGCTGAATATTCCTTTTGTCTCCGACCATCAGGCACCTGAGTCGCTGTCTTTTTCGTGACATTCAGTTCGCTGCGCTCACGGCTCTGGCAGTGAATGGGGGTAAATGGCACTACAGGCGCCTTTTATGGATTCATGCAAGGAAACTACCCATAATACAAGAAAAGCCCGTCACGGGCTTCTCAGGGCGTTTTATGGCGGGTCTGCTATGTGGTGCTATCTGACTTTTTGCTGTTCAGCAGTTCCTGCCCTCTGATTTTCCAGTCTGACCACTTCGGATTATCCCGTGACAGGTCATTCAGACTGGCTAATGCACCCAGTAAGGCAGCGGTATCATCAACAGGCTTACCCGTCTTACTGTCCCTAGTGCTTGGATTCTCACCAATAAAAAACGCCCGGCGGCAACCGAGCGTTCTGAACAAATCCAGATGGAGTTCTGAGGTCATTACTGGATCTATCAACAGGAGTCCAAGCGAGCTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
   </si>
   <si>
     <t>oligo</t>
@@ -485,129 +539,18 @@
     <t>oligo_14</t>
   </si>
   <si>
-    <t>oligo_15</t>
-  </si>
-  <si>
-    <t>oligo_16</t>
-  </si>
-  <si>
-    <t>oligo_17</t>
-  </si>
-  <si>
-    <t>oligo_18</t>
-  </si>
-  <si>
-    <t>oligo_19</t>
-  </si>
-  <si>
     <t>oligo_2</t>
   </si>
   <si>
-    <t>oligo_20</t>
-  </si>
-  <si>
-    <t>oligo_21</t>
-  </si>
-  <si>
-    <t>oligo_22</t>
-  </si>
-  <si>
-    <t>oligo_23</t>
-  </si>
-  <si>
-    <t>oligo_24</t>
-  </si>
-  <si>
-    <t>oligo_25</t>
-  </si>
-  <si>
-    <t>oligo_26</t>
-  </si>
-  <si>
-    <t>oligo_27</t>
-  </si>
-  <si>
-    <t>oligo_28</t>
-  </si>
-  <si>
-    <t>oligo_29</t>
-  </si>
-  <si>
     <t>oligo_3</t>
   </si>
   <si>
-    <t>oligo_30</t>
-  </si>
-  <si>
-    <t>oligo_31</t>
-  </si>
-  <si>
-    <t>oligo_32</t>
-  </si>
-  <si>
-    <t>oligo_33</t>
-  </si>
-  <si>
-    <t>oligo_34</t>
-  </si>
-  <si>
-    <t>oligo_35</t>
-  </si>
-  <si>
-    <t>oligo_36</t>
-  </si>
-  <si>
-    <t>oligo_37</t>
-  </si>
-  <si>
-    <t>oligo_38</t>
-  </si>
-  <si>
-    <t>oligo_39</t>
-  </si>
-  <si>
     <t>oligo_4</t>
   </si>
   <si>
-    <t>oligo_40</t>
-  </si>
-  <si>
-    <t>oligo_41</t>
-  </si>
-  <si>
-    <t>oligo_42</t>
-  </si>
-  <si>
-    <t>oligo_43</t>
-  </si>
-  <si>
-    <t>oligo_44</t>
-  </si>
-  <si>
-    <t>oligo_45</t>
-  </si>
-  <si>
-    <t>oligo_46</t>
-  </si>
-  <si>
-    <t>oligo_47</t>
-  </si>
-  <si>
-    <t>oligo_48</t>
-  </si>
-  <si>
-    <t>oligo_49</t>
-  </si>
-  <si>
     <t>oligo_5</t>
   </si>
   <si>
-    <t>oligo_50</t>
-  </si>
-  <si>
-    <t>oligo_51</t>
-  </si>
-  <si>
     <t>oligo_6</t>
   </si>
   <si>
@@ -620,67 +563,40 @@
     <t>oligo_9</t>
   </si>
   <si>
+    <t>CAGGGCGGGGTTTTTTTTTTACCAATGCTTAATCAGTGAGG</t>
+  </si>
+  <si>
     <t>ACACGGAAATGTTGAATACTCATGTTACATTGTCGATCTGTTCATG</t>
   </si>
   <si>
+    <t>ACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGG</t>
+  </si>
+  <si>
+    <t>CATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGC</t>
+  </si>
+  <si>
+    <t>ACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGAC</t>
+  </si>
+  <si>
+    <t>GCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGC</t>
+  </si>
+  <si>
+    <t>CATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAG</t>
+  </si>
+  <si>
     <t>CTCGTAAACTTGGTCTGACAGCTGCCAACACTGCACAG</t>
   </si>
   <si>
-    <t>GCGAGCAACCTGGATAAATAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>CTATTTCGGTTTAGTAGACGGACATGGATATTTATGCGGTGGC</t>
-  </si>
-  <si>
-    <t>ACACGGAAATGTTGAATACTCATTCGAGTGCCACCTGAC</t>
-  </si>
-  <si>
-    <t>GCCCTTTCGTCTTCACCTTTACACTTTATGCTTCCGGC</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAAATGAAACCGGAAGATTTTCGC</t>
-  </si>
-  <si>
-    <t>ACACGGAAATGTTGAATACTCATATGGAATAGACTGGATGGAGG</t>
-  </si>
-  <si>
-    <t>CATAAACAGTAATACAAGGGGTGTTCTGCCAACACTGCACAG</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCCTGCCAACACTGCACAG</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCATGGGCAGCCTGGAAA</t>
-  </si>
-  <si>
-    <t>CGCAGCAACCTGGATAAAATGAAAATTACCGGCAGCAA</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCTTTACACTTTATGCTTCCGGC</t>
-  </si>
-  <si>
-    <t>CACCGCGAGCAGCTAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAAATGCTGCTGTTTCCGC</t>
-  </si>
-  <si>
-    <t>TGGGAAGGCATTAAAAGCAAATAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>TGGGAAGGCATTAAAAGCAAAATGCCGCATGCGC</t>
-  </si>
-  <si>
-    <t>GGGCATTGAACTGGCGTAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>CATAAACAGTAATACAAGGGGTGTTTTTACACTTTATGCTTCCGGC</t>
-  </si>
-  <si>
-    <t>TGGGAAGGCATTAAAAGCAAAATGCTGGCGATGAGCC</t>
-  </si>
-  <si>
-    <t>AGCAGAGCCCGGTGTAACCCGGTAGAACTGAACC</t>
+    <t>AACTTTATTATCAATAAGTTAAATCGGTACCTAATGCAGATCATTGTTAAGTACGG</t>
+  </si>
+  <si>
+    <t>CCCGGCACCGCTAAAAAAAAACCCCGCCCC</t>
+  </si>
+  <si>
+    <t>CTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGC</t>
+  </si>
+  <si>
+    <t>GGAATTGTGAGCGGATAACAATAATGCAGATCATTGTTAAGTACGG</t>
   </si>
   <si>
     <t>ACACGGAAATGTTGAATACTCATCTGCCAACACTGCACAG</t>
@@ -689,100 +605,13 @@
     <t>AACTTTATTATCAATAAGTTAAATCGGTACCTCGAGTGCCACCTGAC</t>
   </si>
   <si>
-    <t>GGAATTGTGAGCGGATAACAAATGAAAATTACCGGCAGCAA</t>
-  </si>
-  <si>
-    <t>GCCCTTTCGTCTTCACCTGCGGCATTCTGGGC</t>
-  </si>
-  <si>
-    <t>GCGAGCAACCTGGATAAAATGCTGGCGATGAGCC</t>
-  </si>
-  <si>
-    <t>CTCGTAAACTTGGTCTGACAGTTTACACTTTATGCTTCCGGC</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAATTTACACTTTATGCTTCCGGC</t>
-  </si>
-  <si>
-    <t>GCCCTTTCGTCTTCACCATGCTGCTGTTTCCGC</t>
-  </si>
-  <si>
-    <t>TGGGAAGGCATTAAAAGCAAAATGAAAATTACCGGCAGCAA</t>
-  </si>
-  <si>
-    <t>GCGAGCAACCTGGATAAAATGAAAATTACCGGCAGCAA</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCATGCTGCTGTTTCCGC</t>
-  </si>
-  <si>
-    <t>GCCCTTTCGTCTTCACCATGGGCAGCCTGGAAA</t>
-  </si>
-  <si>
-    <t>GCGAGCAACCTGGATAAAATGCCGCATGCGC</t>
-  </si>
-  <si>
-    <t>CACCGCGAGCAGCATGAAACCGGAAGATTTTCGC</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAATGCGGCATTCTGGGC</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCATGAAACCGGAAGATTTTCGC</t>
-  </si>
-  <si>
-    <t>CGCAGCAACCTGGATAAAATGCCGCATGCGC</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCATGCTGGCGATGAGCC</t>
-  </si>
-  <si>
-    <t>AGCAGAGCCCGGTGATGAAACCGGAAGATTTTCGC</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCTGCGGCATTCTGGGC</t>
-  </si>
-  <si>
-    <t>CGCAGCAACCTGGATAAATAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAAATGCCGCATGCGC</t>
-  </si>
-  <si>
-    <t>GGGCATTGAACTGGCGATGAAACCGGAAGATTTTCGC</t>
-  </si>
-  <si>
-    <t>CGCAGCAACCTGGATAAAATGCTGGCGATGAGCC</t>
-  </si>
-  <si>
-    <t>CATGCTGGATAAACTGCTGAAATAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAAATGCTGGCGATGAGCC</t>
-  </si>
-  <si>
-    <t>AACTTTATTATCAATAAGTTAAATCGGTACCATGCCGCATGCGC</t>
-  </si>
-  <si>
-    <t>CTATTTCGGTTTAGTAGACGGACTAACCCGGTAGAACTGAACC</t>
-  </si>
-  <si>
-    <t>CTATTTCGGTTTAGTAGACGGACTTACCAATGCTTAATCAGTGAGG</t>
-  </si>
-  <si>
-    <t>GAACCGCGCGCGTTACCAATGCTTAATCAGTGAGG</t>
-  </si>
-  <si>
-    <t>GGAATTGTGAGCGGATAACAAATGGGCAGCCTGGAAA</t>
+    <t>GCCCTTTCGTCTTCACCTAATGCAGATCATTGTTAAGTACGG</t>
   </si>
   <si>
     <t>part</t>
   </si>
   <si>
-    <t>B8ZV93</t>
-  </si>
-  <si>
-    <t>B8ZV94</t>
+    <t>BBa_B1006</t>
   </si>
   <si>
     <t>BBa_I13800</t>
@@ -803,40 +632,268 @@
     <t>BBa_K1847014</t>
   </si>
   <si>
-    <t>O82035</t>
-  </si>
-  <si>
-    <t>P33751</t>
-  </si>
-  <si>
-    <t>P85913</t>
-  </si>
-  <si>
-    <t>P85916</t>
-  </si>
-  <si>
-    <t>Q08350</t>
-  </si>
-  <si>
-    <t>Q0VZ68</t>
-  </si>
-  <si>
-    <t>Q1LRV9</t>
-  </si>
-  <si>
-    <t>Q3IWB0</t>
-  </si>
-  <si>
-    <t>Q57160</t>
-  </si>
-  <si>
-    <t>Ter</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGCTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCCAGGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCG</t>
-  </si>
-  <si>
-    <t>ATGGATATTTATGCGGTGGCGGTGGGCCGCGTGGGCGTGGAACTGGATGCGGCGCAGCTGGAACGCGTGCGCGCGACCCATCTGCGCGTGCAGGGCTGGGGCATGGAAAAATATCCGATGTATGGCGTGAACACCGGCTTTGGCGAACTGATTAACGTGATTATTCCGCCGCAGTTTAAAAGCGATCTGCAGCATAACCTGCTGCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTCCGGATGAAGTGGTGCGCGCGATTATGACCGTGCGCATTAACTGCCTGATGAAAGGCTATAGCGGCATTAGCCCGGAAGCGCTGCAGCTGCTGGCGACCATGCTGAACCGCGGCATTCATCCGGTGATTCCGATGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATATGGCGCTGCCGCTGATTGGCGATGGCCATGTGCGCAAAAACGGCGTGACCCGCCCGACCATGGAAGTGTTTCAGGAAGAAGGCCTGACCCCGCTGAAACTGGGCTTTAAAGAAGGCCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCGCGGCGAGCCTGGCGCTGTATCGCGCGCGCCATCTGCTGCGCCTGAGCCTGCTGGCGAGCGCGGATATTGTGCAGGCGATGAACGCGAGCACCCGCCCGTTTAGCCATACCGGCAACGCGGTGAAAAACCATCCGGGCCAGGTGGTGATTGCGCGCCTGATGCGCGATCTGACCGAAGGCACCGGCCTGATGCGCGATCATCAGGATATTATGCGCGCGATTAGCGAACGCACCAGCCATAGCAACGATGTGGAAGAAACCGAAATTTATCTGCAGAACGCGTATAGCCTGCGCTGCATGCCGCAGGTGCTGGGCGTGGTGCTGGAAACCCTGCAGATGTGCCAGCGCTTTATTGAAGAAGAAGCGAACAGCGTGAACGATAACCCGGTGATTCTGGATACCCCGGCGGAAACCTATCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAGCATTGCGGTGGCGGAAATGGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGCTGGATCCGCATATTAACAAACCGCTGCCGGGCTTTCTGGCGCATGCGAAAACCGGCCTGTTTTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCATTCCGAGCAACGGCCAGAACCAGGATATTGTGAGCATGGGCCTGATTGCGGCGCGCAAAACCCTGGCGCTGTGCGAAAACGTGGGCACCATTCTGAGCGTGCTGATGGCGGCGCTGAACCAGGCGAGCCATTTTACCGAAGCGGCGAAATATAGCGCGCCGATTCGCAGCATTCATGAAAAACTGGGCAAAGTGGCGCCGCGCTATGAAGATGAACGCCCGATGAGCACCGTGATTGCGCAGGTGCGCGGCGTGCTGCTGCAGGAACAGGGCCTGGCGCTGGCGCAGAGCCTGGTGAACCTGGATCTGACCCCGGATCTGAGCCTGGAACCGCGCGCG</t>
+    <t>O33948_10000_cds</t>
+  </si>
+  <si>
+    <t>O33948_10000_gene</t>
+  </si>
+  <si>
+    <t>O33948_10000_rbs</t>
+  </si>
+  <si>
+    <t>O33948_20000_cds</t>
+  </si>
+  <si>
+    <t>O33948_20000_gene</t>
+  </si>
+  <si>
+    <t>O33948_20000_rbs</t>
+  </si>
+  <si>
+    <t>O33948_30000_cds</t>
+  </si>
+  <si>
+    <t>O33948_30000_gene</t>
+  </si>
+  <si>
+    <t>O33948_30000_rbs</t>
+  </si>
+  <si>
+    <t>P07773_10000_cds</t>
+  </si>
+  <si>
+    <t>P07773_10000_gene</t>
+  </si>
+  <si>
+    <t>P07773_10000_rbs</t>
+  </si>
+  <si>
+    <t>P07773_20000_cds</t>
+  </si>
+  <si>
+    <t>P07773_20000_gene</t>
+  </si>
+  <si>
+    <t>P07773_20000_rbs</t>
+  </si>
+  <si>
+    <t>P07773_30000_cds</t>
+  </si>
+  <si>
+    <t>P07773_30000_gene</t>
+  </si>
+  <si>
+    <t>P07773_30000_rbs</t>
+  </si>
+  <si>
+    <t>P31011_10000_cds</t>
+  </si>
+  <si>
+    <t>P31011_10000_gene</t>
+  </si>
+  <si>
+    <t>P31011_10000_rbs</t>
+  </si>
+  <si>
+    <t>P31011_20000_cds</t>
+  </si>
+  <si>
+    <t>P31011_20000_gene</t>
+  </si>
+  <si>
+    <t>P31011_20000_rbs</t>
+  </si>
+  <si>
+    <t>P31011_30000_cds</t>
+  </si>
+  <si>
+    <t>P31011_30000_gene</t>
+  </si>
+  <si>
+    <t>P31011_30000_rbs</t>
+  </si>
+  <si>
+    <t>P31013_10000_cds</t>
+  </si>
+  <si>
+    <t>P31013_10000_gene</t>
+  </si>
+  <si>
+    <t>P31013_10000_rbs</t>
+  </si>
+  <si>
+    <t>P31013_20000_cds</t>
+  </si>
+  <si>
+    <t>P31013_20000_gene</t>
+  </si>
+  <si>
+    <t>P31013_20000_rbs</t>
+  </si>
+  <si>
+    <t>P31013_30000_cds</t>
+  </si>
+  <si>
+    <t>P31013_30000_gene</t>
+  </si>
+  <si>
+    <t>P31013_30000_rbs</t>
+  </si>
+  <si>
+    <t>P86029_10000_cds</t>
+  </si>
+  <si>
+    <t>P86029_10000_gene</t>
+  </si>
+  <si>
+    <t>P86029_10000_rbs</t>
+  </si>
+  <si>
+    <t>P86029_20000_cds</t>
+  </si>
+  <si>
+    <t>P86029_20000_gene</t>
+  </si>
+  <si>
+    <t>P86029_20000_rbs</t>
+  </si>
+  <si>
+    <t>P86029_30000_cds</t>
+  </si>
+  <si>
+    <t>P86029_30000_gene</t>
+  </si>
+  <si>
+    <t>P86029_30000_rbs</t>
+  </si>
+  <si>
+    <t>Q01551_10000_cds</t>
+  </si>
+  <si>
+    <t>Q01551_10000_gene</t>
+  </si>
+  <si>
+    <t>Q01551_10000_rbs</t>
+  </si>
+  <si>
+    <t>Q01551_20000_cds</t>
+  </si>
+  <si>
+    <t>Q01551_20000_gene</t>
+  </si>
+  <si>
+    <t>Q01551_20000_rbs</t>
+  </si>
+  <si>
+    <t>Q01551_30000_cds</t>
+  </si>
+  <si>
+    <t>Q01551_30000_gene</t>
+  </si>
+  <si>
+    <t>Q01551_30000_rbs</t>
+  </si>
+  <si>
+    <t>Q08897_10000_cds</t>
+  </si>
+  <si>
+    <t>Q08897_10000_gene</t>
+  </si>
+  <si>
+    <t>Q08897_10000_rbs</t>
+  </si>
+  <si>
+    <t>Q08897_20000_cds</t>
+  </si>
+  <si>
+    <t>Q08897_20000_gene</t>
+  </si>
+  <si>
+    <t>Q08897_20000_rbs</t>
+  </si>
+  <si>
+    <t>Q08897_30000_cds</t>
+  </si>
+  <si>
+    <t>Q08897_30000_gene</t>
+  </si>
+  <si>
+    <t>Q08897_30000_rbs</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_10000_cds</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_10000_gene</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_10000_rbs</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_20000_cds</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_20000_gene</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_20000_rbs</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_30000_cds</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_30000_gene</t>
+  </si>
+  <si>
+    <t>Q7WTJ2_30000_rbs</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_10000_cds</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_10000_gene</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_10000_rbs</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_20000_cds</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_20000_gene</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_20000_rbs</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_30000_cds</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_30000_gene</t>
+  </si>
+  <si>
+    <t>Q7WTJ6_30000_rbs</t>
+  </si>
+  <si>
+    <t>RP1_3_prime_assembly</t>
+  </si>
+  <si>
+    <t>RP1_5_prime_assembly</t>
+  </si>
+  <si>
+    <t>RP2_3_prime_assembly</t>
+  </si>
+  <si>
+    <t>RP2_5_prime_assembly</t>
+  </si>
+  <si>
+    <t>RP3_3_prime_assembly</t>
+  </si>
+  <si>
+    <t>RP3_5_prime_assembly</t>
+  </si>
+  <si>
+    <t>AAAAAAAAACCCCGCCCCTGACAGGGCGGGGTTTTTTTT</t>
   </si>
   <si>
     <t>TTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGAGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCAT</t>
@@ -857,34 +914,265 @@
     <t>TTTACACTTTATGCTTCCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAA</t>
   </si>
   <si>
-    <t>ATGGGCAGCCTGGAAAGCGAAAAAACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGCGCAGCAACCTGGATAAA</t>
-  </si>
-  <si>
-    <t>ATGCTGCTGTTTCCGCGCCGCACCAACATTGCGTTTTTTAAAACCACCGGCATTTTTGCGAACTTTCCGCTGCTGGGCCGCACCATTACCACCAGCCCGAGCTTTCTGACCCATAAACTGAGCAAAGAAGTGACCCGCGCGAGCACCAGCCCGCCGCGCCCGAAACGCATTGTGGTGGCGATTACCGGCGCGACCGGCGTGGCGCTGGGCATTCGCCTGCTGCAGGTGCTGAAAGAACTGAGCGTGGAAACCCATCTGGTGATTAGCAAATGGGGCGCGGCGACCATGAAATATGAAACCGATTGGGAACCGCATGATGTGGCGGCGCTGGCGACCAAAACCTATAGCGTGCGCGATGTGAGCGCGTGCATTAGCAGCGGCAGCTTTCAGCATGATGGCATGATTGTGGTGCCGTGCAGCATGAAAAGCCTGGCGGCGATTCGCATTGGCTTTACCGAAGATCTGATTACCCGCGCGGCGGATGTGAGCATTAAAGAAAACCGCAAACTGCTGCTGGTGACCCGCGAAACCCCGCTGAGCAGCATTCATCTGGAAAACATGCTGAGCCTGTGCCGCGCGGGCGTGATTATTTTTCCGCCGGTGCCGGCGTTTTATACCCGCCCGAAAAGCCTGCATGATCTGCTGGAACAGAGCGTGGGCCGCATTCTGGATTGCTTTGGCATTCATGCGGATACCTTTCCGCGCTGGGAAGGCATTAAAAGCAAA</t>
-  </si>
-  <si>
-    <t>ATGGGCAGCCTGGAAAGCGAACGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAA</t>
-  </si>
-  <si>
-    <t>TGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAATTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAA</t>
-  </si>
-  <si>
-    <t>ATGGGCAGCCTGGAAAGCGAACGCACCGTGACCGGCTATGCGGCGCGCGATAGCAGCGGCCATCTGAGCCCGTATACCTATACCCTGCGCAACAAAGGCCCGGAAGATGTGATTGTGCGCGTGATTTATTGCGGCATTTGCCATAGCGATCTGGTGCAGATGCATAACGAAATGGGCATGAGCAACTATCCGATGGTGCCGGGCCATGAAGTGGTGGGCGTGGTGACCGAAATTGGCAGCGAAGTGAAAAAATTTAAAGTGGGCGAACATGTGGGCGTGGGCTGCATTGTGGGCAGCTGCCGCAGCTGCAGCAACTGCAACGGCAGCATGGAACAGTATTGCAGCAAACGCATTTGGACCTATAACGATGTGAACCATGATGGCACCCCGACCCAGGGCGGCTTTGCGAGCAGCATGGTGGTGGATCAGATGTTTGTGGTGCGCATTCCGGAAAACCTGCCGCTGGAACAGGCGGCGCCGCTGCTGTGCGCGGGCGTGACCGTGTATAGCCCGATGAAACATTTTGGCATGACCGAACCGGGCAAAAAATGCGGCATTCTGGGCCTGGGCGGCGTGGGCCATATGGGCGTGAAAATTGCGAAAGCGTTTGGCCTGCATGTGACCGTGATTAGCAGCAGCGATAAAAAAAAAGAAGAAGCGCTGGAAGTGCTGGGCGCGGATGCGTATCTGGTGAGCAAAGATGCGGAAAAAATGCAGGAAGCGGCGGAAAGCCTGGATTATATTATGGATACCATTCCGGTGGCGCATCCGCTGGAACCGTATCTGGCGCTGCTGAAAACCAACGGCAAACTGGTGATGCTGGGCGTGGTGCCGGAACCGCTGCATTTTGTGACCCCGCTGCTGATTCTGGGCCGCCGCAGCATTGCGGGCAGCTTTATTGGCAGCATGGAAGAAACCCAGGAAACCCTGGATTTTTGCGCGGAAAAAAAAGTGAGCAGCATGATTGAAGTGGTGGGCCTGGATTATATTAACACCGCGATGGAACGCCTGGTGAAAAACGATGTGCGCTATCGCTTTGTGGTGGATGTGGCGGCGAGCAACCTGGATAAA</t>
-  </si>
-  <si>
-    <t>ATGAAAATTACCGGCAGCAACCTGAGCATTTATGATGTGGCGGATGTGTGCATGAAACGCGCGACCGTGGAACTGGATCCGAGCCAGCTGGAACGCGTGGCGGTGGCGCATGAACGCACCCAGGCGTGGGGCGAAGCGCAGCATCCGATTTATGGCGTGAACACCGGCTTTGGCGAACTGGTGCCGGTGATGATTCCGCGCCAGCATAAACGCGAACTGCAGGAAAACCTGATTCGCAGCCATGCGGCGGGCGGCGGCGAACCGTTTGCGGATGATGTGGTGCGCGCGATTATGCTGGCGCGCCTGAACTGCCTGATGAAAGGCTATAGCGGCGCGAGCGTGGAAACCGTGAAACTGCTGGCGGAATTTATTAACCGCGGCATTCATCCGGTGATTCCGCAGCAGGGCAGCCTGGGCGCGAGCGGCGATCTGAGCCCGCTGAGCCATATTGCGCTGGCGCTGATTGGCGAAGGCACCGTGAGCTTTAAAGGCCAGGTGCGCAAAACCGGCGATGTGCTGCGCGAAGAAGGCCTGAAACCGCTGGAACTGGGCTTTAAAGGCGGCCTGACCCTGATTAACGGCACCAGCGCGATGACCGGCGCGGCGTGCGTGGCGCTGGGCCGCGCGTATCATCTGTTTCGCCTGGCGCTGCTGGCGACCGCGGATTTTGTGCAGTGCCTGGGCGGCAGCACCGGCCCGTTTGAAGAACGCGGCCATCTGCCGAAAAACCATAGCGGCCAGGTGATTGTGGCGCGCGAAATTCGCAAACTGCTGGCGGGCAGCCAGCTGACCAGCGATCATCAGGATCTGATGAAAGAAATGGTGGCGCGCAGCGGCGTGGGCAACGATGTGGTGGATACCGGCGTGTATCTGCAGGATGCGTATACCCTGCGCGCGGTGCCGCAGATTCTGGGCCCGGTGCTGGATACCCTGGATTTTGCGCGCAAACTGATTGAAGAAGAACTGAACAGCACCAACGATAACCCGCTGATTTTTGATGTGCCGGAACAGACCTTTCATGGCGCGAACTTTCATGGCCAGTATGTGGCGATGGCGTGCGATTATCTGAACATTGCGGTGACCGAAATTGGCGTGCTGGCGGAACGCCAGCTGAACCGCCTGGTGGATCCGAACATTAACGGCAAACTGCCGCCGTTTCTGGCGAGCGCGCATAGCGGCCTGCTGTGCGGCTTTGAAGGCGGCCAGTATCTGGCGACCAGCATTGCGAGCGAAAACCTGGATCTGGCGGCGCCGAGCAGCATTAAAAGCCTGCCGAGCAACGGCAGCAACCAGGATGTGGTGAGCATGGGCACCACCAGCGCGCGCAAAAGCCTGCGCCTGTGCGAAAACGTGGGCACCATTGTGAGCACCCTGATTGCGGCGTGCAACCAGGCGGGCCATATTCTGGGCAACGAACGCTTTAGCCCGCCGATTCGCGAACTGCATGGCGAACTGAGCCGCAGCGTGCCGCTGTATCAGGATGATAGCCCGATTTTTGAACTGTTTCAGACCGTGCGCGCGTTTGTGGGCGGCGATGGCTTTCGCGCGCATCTGGTGACCCATCTGGATCTGGCGGCGACCACCGCGAGCAGC</t>
-  </si>
-  <si>
-    <t>ATGCCGCATGCGCATCCGGCGGATATTGATGGCCATCATCTGACCCCGGATACCGTGGCGGCGATTGCGCGCGGCCAGCGCGCGGCGATTGTGCCGGAACCGGTGCTGGGCAAAGTGGCGGATGCGCGCGCGCGCTTTGAACAGGTGGCGGCGGCGAACGTGCCGATTTATGGCGTGAGCACCGGCTTTGGCGAACTGGTGCATAACTGGGTGGATATTGAACATGGCCGCGCGCTGCAGGAAAACCTGCTGCGCAGCCATTGCGCGGGCGTGGGCCCGCTGTTTAGCCGCGATGAAGTGCGCGCGATGATGGTGGCGCGCGCGAACGCGCTGGCGCGCGGCTATAGCGCGGTGCGCCCGGCGGTGATTGAACAGCTGCTGAAATATCTGGAAGCGGGCATTACCCCGGCGGTGCCGCAGGTGGGCAGCCTGGGCGCGAGCGGCGATCTGGCGCCGCTGAGCCATGTGGCGATTACCCTGATTGGCGAAGGCAAAGTGCTGACCGAAGATGGCGGCACCGCGCCGACCGCGGAAGTGCTGCGCGAACGCGGCATTACCCCGCTGGCGCTGGCGTATAAAGAAGGCCTGGCGCTGATTAACGGCACCAGCGCGATGACCGGCGTGAGCTGCCTGCTGCTGGAAACCCTGCGCGCGCAGGTGCAGCAGGCGGAAATTATTGCGGCGCTGGCGCTGGAAGGCCTGAGCGCGAGCGCGGATGCGTTTATGGCGCATGGCCATGATATTGCGAAACCGCATCCGGGCCAGATTCGCAGCGCGGCGAACATGCGCGCGCTGCTGGCGGATAGCGCGCGCCTGAGCGGCCATGGCGAACTGAGCGCGGAAATGAAAACCCGCGCGGGCGAAGCGAAAAACACCGGCACCGGCGTGTTTATTCAGAAAGCGTATACCCTGCGCTGCATTCCGCAGGTGCTGGGCGCGGTGCGCGATACCCTGGATCATTGCGCGACCGTGGTGGAACGCGAACTGAACAGCAGCAACGATAACCCGCTGTTTTTTGAAGATGGCGAACTGTTTCATGGCGGCAACTTTCATGGCCAGCAGGTGGCGTTTGCGATGGATTTTCTGGCGATTGCGGCGACCCAGCTGGGCGTGGTGAGCGAACGCCGCCTGAACCGCCTGCTGAGCCCGCATCTGAACAACAACCTGCCGGCGTTTCTGGCGGCGGCGAACGAAGGCCTGAGCTGCGGCTTTGCGGGCGCGCAGTATCCGGCGACCGCGCTGATTGCGGAAAACCGCACCATTTGCAGCCCGGCGAGCATTCAGAGCGTGCCGAGCAACGGCGATAACCAGGATGTGGTGAGCATGGGCCTGATTGCGGCGCGCAACGCGCGCCGCATTCTGGATAACAACCAGTATATTCTGGCGCTGGAACTGCTGGCGAGCTGCCAGGCGGCGGAACTGGCGGGCGCGGTGGAACAGCTGGCGCCGGCGGGCCGCGCGGTGTTTGCGTTTGTGCGCGAACGCGTGCCGTTTCTGAGCATTGATCGCTATATGACCGATGATATTGAAGCGATGGCGGCGCTGCTGCGCCAGGGCGCGCTGGTGGAAGTGGTGCGCGGCGCGGGCATTGAACTGGCG</t>
-  </si>
-  <si>
-    <t>ATGCTGGCGATGAGCCCGCCGAAACCGGCGGTGGAACTGGATCGCCATATTGATCTGGATCAGGCGCATGCGGTGGCGAGCGGCGGCGCGCGCATTGTGCTGGCGCCGCCGGCGCGCGATCGCTGCCGCGCGAGCGAAGCGCGCCTGGGCGCGGTGATTCGCGAAGCGCGCCATGTGTATGGCCTGACCACCGGCTTTGGCCCGCTGGCGAACCGCCTGATTAGCGGCGAAAACGTGCGCACCCTGCAGGCGAACCTGGTGCATCATCTGGCGAGCGGCGTGGGCCCGGTGCTGGATTGGACCACCGCGCGCGCGATGGTGCTGGCGCGCCTGGTGAGCATTGCGCAGGGCGCGAGCGGCGCGAGCGAAGGCACCATTGCGCGCCTGATTGATCTGCTGAACAGCGAACTGGCGCCGGCGGTGCCGAGCCGCGGCACCGTGGGCGCGAGCGGCGATCTGACCCCGCTGGCGCATATGGTGCTGTGCCTGCAGGGCCGCGGCGATTTTCTGGATCGCGATGGCACCCGCCTGGATGGCGCGGAAGGCCTGCGCCGCGGCCGCCTGCAGCCGCTGGATCTGAGCCATCGCGATGCGCTGGCGCTGGTGAACGGCACCAGCGCGATGACCGGCATTGCGCTGGTGAACGCGCATGCGTGCCGCCATCTGGGCAACTGGGCGGTGGCGCTGACCGCGCTGCTGGCGGAATGCCTGCGCGGCCGCACCGAAGCGTGGGCGGCGGCGCTGAGCGATCTGCGCCCGCATCCGGGCCAGAAAGATGCGGCGGCGCGCCTGCGCGCGCGCGTGGATGGCAGCGCGCGCGTGGTGCGCCATGTGATTGCGGAACGCCGCCTGGATGCGGGCGATATTGGCACCGAACCGGAAGCGGGCCAGGATGCGTATAGCCTGCGCTGCGCGCCGCAGGTGCTGGGCGCGGGCTTTGATACCCTGGCGTGGCATGATCGCGTGCTGACCATTGAACTGAACGCGGTGACCGATAACCCGGTGTTTCCGCCGGATGGCAGCGTGCCGGCGCTGCATGGCGGCAACTTTATGGGCCAGCATGTGGCGCTGACCAGCGATGCGCTGGCGACCGCGGTGACCGTGCTGGCGGGCCTGGCGGAACGCCAGATTGCGCGCCTGACCGATGAACGCCTGAACCGCGGCCTGCCGCCGTTTCTGCATCGCGGCCCGGCGGGCCTGAACAGCGGCTTTATGGGCGCGCAGGTGACCGCGACCGCGCTGCTGGCGGAAATGCGCGCGACCGGCCCGGCGAGCATTCATAGCATTAGCACCAACGCGGCGAACCAGGATGTGGTGAGCCTGGGCACCATTGCGGCGCGCCTGTGCCGCGAAAAAATTGATCGCTGGGCGGAAATTCTGGCGATTCTGGCGCTGTGCCTGGCGCAGGCGGCGGAACTGCGCTGCGGCAGCGGCCTGGATGGCGTGAGCCCGGCGGGCAAAAAACTGGTGCAGGCGCTGCGCGAACAGTTTCCGCCGCTGGAAACCGATCGCCCGCTGGGCCAGGAAATTGCGGCGCTGGCGACCCATCTGCTGCAGCAGAGCCCGGTG</t>
-  </si>
-  <si>
-    <t>ATGAAACCGGAAGATTTTCGCGCGAGCACCCAGCGCCCGTTTACCGGCGAAGAATATCTGAAAAGCCTGCAGGATGGCCGCGAAATTTATATTTATGGCGAACGCGTGAAAGATGTGACCACCCATCCGGCGTTTCGCAACGCGGCGGCGAGCGTGGCGCAGCTGTATGATGCGCTGCATAAACCGGAAATGCAGGATAGCCTGTGCTGGAACACCGATACCGGCAGCGGCGGCTATACCCATAAATTTTTTCGCGTGGCGAAAAGCGCGGATGATCTGCGCCATGAACGCGATGCGATTGCGGAATGGAGCCGCCTGAGCTATGGCTGGATGGGCCGCACCCCGGATTATAAAGCGGCGTTTGGCTGCGCGCTGGGCGGCACCCCGGGCTTTTATGGCCAGTTTGAACAGAACGCGCGCAACTGGTATACCCGCATTCAGGAAACCGGCCTGTATTTTAACCATGCGATTGTGAACCCGCCGATTGATCGCCATCTGCCGACCGATAAAGTGAAAGATGTGTATATTAAACTGGAAAAAGAAACCGATGCGGGCATTATTGTGAGCGGCGCGAAAGTGGTGGCGACCAACAGCGCGCTGACCCATTATAACATGATTGGCTTTGGCAGCGCGCAGGTGATGGGCGAAAACCCGGATTTTGCGCTGATGTTTGTGGCGCCGATGGATGCGGATGGCGTGAAACTGATTAGCCGCGCGAGCTATGAAATGGTGGCGGGCGCGACCGGCAGCCCGTATGATTATCCGCTGAGCAGCCGCTTTGATGAAAACGATGCGATTCTGGTGATGGATAACGTGCTGATTCCGTGGGAAAACGTGCTGCTGTATCGCGATTTTGATCGCTGCCGCCGCTGGACCATGGAAGGCGGCTTTGCGCGCATGTATCCGCTGCAGGCGTGCGTGCGCCTGGCGGTGAAACTGGATTTTATTACCGCGCTGCTGAAAAAAAGCCTGGAATGCACCGGCACCCTGGAATTTCGCGGCGTGCAGGCGGATCTGGGCGAAGTGGTGGCGTGGCGCAACACCTTTTGGGCGCTGAGCGATAGCATGTGCAGCGAAGCGACCCCGTGGGTGAACGGCGCGTATCTGCCGGATCATGCGGCGCTGCAGACCTATCGCGTGCTGGCGCCGATGGCGTATGCGAAAATTAAAAACATTATTGAACGCAACGTGACCAGCGGCCTGATTTATCTGCCGAGCAGCGCGCGCGATCTGAACAACCCGCAGATTGATCAGTATCTGGCGAAATATGTGCGCGGCAGCAACGGCATGGATCATGTGCAGCGCATTAAAATTCTGAAACTGATGTGGGATGCGATTGGCAGCGAATTTGGCGGCCGCCATGAACTGTATGAAATTAACTATAGCGGCAGCCAGGATGAAATTCGCCTGCAGTGCCTGCGCCAGGCGCAGAGCAGCGGCAACATGGATAAAATGATGGCGATGGTGGATCGCTGCCTGAGCGAATATGATCAGAACGGCTGGACCGTGCCGCATCTGCATAACAACGATGATATTAACATGCTGGATAAACTGCTGAAA</t>
-  </si>
-  <si>
-    <t>TAACCCGGTAGAACTGAACCCTCGGTGCTTTCATATCGACCTTTCGCCTTGTGGGGGTCTCAACTCCTTGATGTAACGCGTGTGTTACTCTCTATGGTTGAATGGAAGCGACTTTCCTCCGTCGACCTAATAGACTGACGGAACATATCCATACCAATCGCACTCCTGGCGATCTATCTATTTCGGTTTAGTAGACGGAC</t>
+    <t>ATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTGGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTAATGAGCATTAAAGTGTTTGGCACCAAAGAAGTACAAGACCTGCTTAAGGCGGCGACCAATCTTGAGGGGAAAGGAGGCAACGCGCGTTCCAAGCAAATTGTGCACCGCTTACTGAGTGACCTATTTAAAGCAATCGATGATCTGGATATCACTCCTGATGAAGTCTGGGCCGGAGTTAATTACCTCAATAAATTAGGTCAGGATGGTGAGGCTACCCTACTGGCTGCGGGCTCGGGTCTGGAGAAATACCTGGATATCCGCCTGGATGCAGCCGATAAAGCAGAAGGCATCGAAGGCGGTACGCCGCGTACTATTGAAGGCCCGCTGTATGTTGCAGGAGCGACGGTGCACGATGGTGTGTCGAAAATCGATATTAACCCGGATGAAGATGCAGGTCCCCTCGTAATTCATGGCACCGTTACAGGTCCTGATGGTAAACCGGTCGCAGGCGCAGTGGTGGAATGTTGGCATGCCAATAGCAAAGGTTTTTATTCTCACTTTGATCCCACCGGCGCACAATCCGACTTCAACCTTCGTGGCGCGGTGAAAACTGGAGCGGATGGCAAATACGAATTTCGCACCCTGATGCCGGTGGGTTATGGCTGTCCTCCGCAGGGCGCCACTCAGCAGCTCCTGAACGTGCTTGGGCGCCATGGTAACCGCCCGGCGCACGTTCATTTCTTTGTGTCAAGCGATTCCGCACGGAAACTGACCACTCAATTTAATATCGAAGGCGATCCTTTGATTTGGGACGATTTTGCCTATGCAACCCGGGAAGAACTGATCCCGCCGGTCACCGAAAAGAAGGGTGGCACCGCGTTGGGCCTGAAAGCGGATACCTATAAGGACATTGAATTTAATTTGACTCTGACAAGCCTGGTCAAGGGTAAAGATAACCAGGTGGTCCACCGCCTTCGGGCAGAAGTTGCGGCATGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>GGATAGGGGTATACAACGGCCGTGCTACGGCGCGGGCGTAGGTAAGAATCGGGGGATTTA</t>
+  </si>
+  <si>
+    <t>ATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTGGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCTATGAGTATTAAAGTCTTTGGAACAAAAGAAGTCCAGGATCTGCTGAAAGCCGCAACCAATCTGGAAGGCAAGGGAGGCAATGCGCGTTCAAAACAGATTGTGCATCGTCTGCTGAGTGACCTGTTTAAAGCCATTGACGATCTGGACATTACTCCTGATGAGGTTTGGGCCGGGGTAAATTACTTAAATAAATTAGGTCAGGACGGTGAAGCCACCCTGCTTGCTGCGGGTAGCGGCCTTGAGAAATATTTGGACATTCGCCTCGATGCGGCAGATAAAGCAGAAGGGATTGAAGGGGGCACCCCAAGGACAATTGAGGGCCCGCTGTACGTGGCAGGTGCGACTGTGCACGATGGGGTAAGCAAAATCGACATCAATCCCGACGAGGATGCAGGTCCGCTGGTTATTCATGGTACTGTAACGGGTCCGGATGGCAAACCCGTTGCGGGCGCTGTCGTCGAATGCTGGCACGCCAACAGTAAAGGTTTTTATAGTCACTTCGACCCGACAGGTGCACAGTCCGACTTCAACTTACGCGGGGCAGTGAAGACCGGCGCTGACGGTAAATATGAATTTCGTACGCTCATGCCGGTAGGCTACGGCTGTCCACCTCAAGGTGCCACCCAGCAACTTCTCAACGTATTAGGGCGTCATGGCAATCGTCCAGCGCACGTGCATTTCTTTGTTTCCTCAGACTCAGCCCGTAAACTGACTACTCAGTTTAACATCGAGGGCGACCCACTCATCTGGGATGACTTTGCTTACGCAACCCGTGAAGAATTAATTCCGCCGGTGACAGAAAAGAAAGGCGGCACAGCCCTTGGCTTAAAAGCTGATACCTATAAGGATATCGAATTTAACCTGACCTTGACGTCCCTCGTCAAAGGGAAGGATAATCAAGTGGTTCACCGGTTGCGCGCGGAAGTGGCGGCATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>GGTATGGGGCTGAGTCTTGCGGTTCGTTGCTCGTCGCGAGACAAGATTTAGGAGGATGCT</t>
+  </si>
+  <si>
+    <t>ATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTTAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGGATGAGCATTAAAGTATTCGGCACCAAAGAAGTACAGGACTTACTGAAGGCCGCCACTAATTTGGAAGGCAAAGGCGGTAATGCCCGTAGCAAACAGATTGTTCACCGCCTGCTGAGTGATCTGTTTAAAGCGATTGATGATCTGGACATCACTCCGGATGAGGTGTGGGCGGGTGTAAATTACCTGAACAAACTGGGCCAGGATGGCGAAGCGACCTTACTGGCTGCCGGGTCAGGCCTCGAAAAATATCTCGATATTCGCTTGGATGCAGCGGATAAAGCCGAAGGTATCGAAGGTGGGACCCCGCGTACGATTGAAGGCCCGTTGTACGTTGCAGGCGCAACCGTCCATGATGGAGTGAGTAAAATCGATATTAATCCTGATGAGGACGCGGGACCCCTCGTGATTCACGGCACGGTGACCGGCCCGGATGGTAAGCCTGTCGCGGGCGCGGTAGTAGAATGCTGGCATGCGAACTCTAAAGGATTCTACTCACACTTTGATCCAACGGGTGCCCAGAGTGATTTTAATTTGCGCGGCGCGGTGAAAACCGGGGCTGACGGCAAATATGAATTCCGTACACTGATGCCGGTAGGTTACGGTTGCCCGCCTCAGGGCGCAACCCAGCAGCTGTTAAACGTACTCGGGCGTCACGGTAACCGGCCCGCCCATGTGCACTTTTTCGTGTCATCAGATAGCGCGCGCAAACTGACCACACAGTTTAATATCGAGGGGGACCCGCTGATTTGGGATGATTTCGCGTATGCGACTCGTGAGGAACTAATTCCGCCGGTCACGGAAAAGAAAGGGGGCACCGCTCTCGGTCTTAAAGCGGATACCTATAAAGATATTGAGTTCAACTTGACCCTGACCTCGCTGGTCAAAGGTAAGGACAATCAAGTAGTACACCGCCTGCGTGCAGAGGTGGCGGCGTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>TAAACGTTTGTATAAGGGGATATGTCATCGTGACATGAAGCATTCCTAGGAGGTTAAGGG</t>
+  </si>
+  <si>
+    <t>ATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTGTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAGATGGAAGTCAAAATTTTTAACACACAGGACGTGCAAGACTTTTTGCGTGTTGCGAGCGGCTTGGAGCAGGAGGGTGGTAATCCGCGCGTGAAGCAGATCATACATCGCGTCCTCTCGGATCTATATAAAGCCATTGAGGATCTTAATATTACCTCTGATGAGTACTGGGCAGGTGTGGCCTACCTGAACCAGCTTGGCGCCAATCAGGAGGCCGGTTTGCTCAGTCCGGGACTGGGCTTTGACCATTACTTAGATATGCGTATGGATGCAGAGGACGCGGCGCTCGGCATTGAAAACGCGACCCCGCGTACCATCGAAGGCCCCCTGTATGTTGCCGGCGCCCCTGAAAGCGTGGGCTACGCGCGGATGGATGACGGTTCAGACCCCAACGGACATACGCTGATTCTGCACGGCACTATATTTGACGCTGACGGCAAACCTCTGCCTAACGCTAAAGTAGAGATTTGGCATGCGAACACCAAAGGTTTTTATAGCCACTTTGATCCCACGGGTGAACAGCAGGCTTTTAATATGCGTAGGTCAATAATCACCGATGAAAACGGCCAGTATCGTGTGCGTACGATTCTGCCTGCAGGTTATGGATGCCCGCCTGAAGGCCCGACTCAGCAGCTCCTGAATCAGTTGGGTCGTCATGGCAACCGTCCCGCCCACATCCACTATTTTGTCTCTGCTGACGGTCACAGGAAGTTAACCACCCAGATTAATGTAGCCGGCGATCCGTATACGTACGATGATTTTGCTTATGCAACCCGCGAAGGATTGGTGGTTGACGCCGTTGAGCATACCGATCCTGAGGCGATTAAAGCAAATGATGTTGAAGGCCCGTTCGCCGAGATGGTATTCGATTTAAAACTGACGCGCCTTGTCGACGGCGTAGACAATCAGGTAGTCGATCGGCCGCGCCTGGCAGTTTGAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>GTTAATATACTCATGTGGATGTCCACACCTCGAACGGGGAAAAACGGAGGATGCTCAAAG</t>
+  </si>
+  <si>
+    <t>ATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACCATGGAAGTTAAAATTTTTAATACTCAAGATGTACAAGACTTCCTACGTGTGGCTTCTGGGCTTGAACAGGAAGGTGGAAACCCTCGGGTGAAACAGATTATTCATCGTGTTCTGTCCGATCTGTATAAGGCAATTGAAGACCTGAATATTACCTCAGATGAATATTGGGCCGGTGTGGCATACCTGAATCAGTTAGGAGCTAATCAAGAAGCAGGGCTCCTCAGCCCGGGCCTCGGTTTCGACCATTACCTGGATATGCGCATGGACGCAGAAGATGCAGCGCTCGGCATCGAAAATGCGACGCCTCGGACCATCGAGGGACCTCTCTACGTGGCAGGTGCCCCGGAGAGCGTAGGTTATGCAAGGATGGACGATGGATCAGATCCTAATGGCCATACCTTAATCCTGCACGGTACCATTTTCGACGCAGATGGCAAACCACTGCCAAATGCAAAAGTTGAAATCTGGCACGCTAACACTAAAGGCTTTTATTCACATTTCGATCCGACTGGGGAACAGCAGGCGTTCAACATGCGCCGTAGCATCATTACCGATGAAAATGGTCAATATCGCGTCCGCACTATTCTGCCGGCTGGTTATGGCTGTCCTCCGGAAGGACCGACCCAGCAACTGCTTAATCAGTTGGGACGCCACGGCAATCGTCCTGCCCACATTCATTACTTTGTTTCAGCAGATGGCCATCGCAAGCTGACGACCCAGATCAACGTTGCGGGCGACCCGTATACCTATGATGACTTTGCATACGCAACGCGTGAGGGTCTCGTTGTCGATGCAGTTGAACATACCGATCCTGAAGCAATTAAGGCCAACGATGTGGAAGGCCCGTTCGCCGAAATGGTATTTGATCTGAAACTGACCCGTTTGGTTGACGGGGTTGATAATCAAGTCGTCGATCGTCCACGACTCGCGGTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>ACTTGGCACGAGTTCAAGTGGCATCCAGCACGTGTGAAACAACGGAGAGGATTCAGAACC</t>
+  </si>
+  <si>
+    <t>ATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTCTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGTATGGAAGTTAAGATCTTTAACACACAGGATGTTCAGGATTTCTTGAGAGTCGCATCAGGGCTCGAACAGGAAGGTGGCAACCCGCGTGTAAAGCAAATTATCCACCGAGTCCTTAGTGATTTGTACAAGGCGATCGAAGATCTGAATATCACCTCAGATGAATATTGGGCGGGTGTCGCATACCTGAATCAGCTTGGTGCCAACCAGGAAGCTGGTTTACTGAGCCCAGGCTTAGGCTTTGATCACTATCTGGATATGCGCATGGATGCGGAGGACGCCGCCTTGGGCATCGAAAACGCGACCCCACGTACCATAGAGGGTCCGCTCTACGTGGCGGGTGCCCCCGAGAGCGTCGGCTACGCCCGTATGGACGACGGTTCAGACCCGAATGGACATACCTTAATTTTGCATGGCACAATTTTCGATGCCGACGGGAAACCTCTACCAAACGCGAAAGTGGAAATCTGGCATGCGAATACTAAAGGCTTTTACTCTCATTTCGATCCCACCGGTGAACAACAGGCCTTTAACATGCGTCGCTCGATTATTACCGATGAAAATGGCCAATACCGCGTTCGTACAATTCTGCCTGCGGGCTATGGTTGCCCGCCCGAAGGTCCGACCCAACAGTTATTAAATCAACTGGGTCGTCACGGCAATCGACCAGCGCACATTCACTACTTTGTAAGCGCTGATGGTCACCGCAAACTAACAACCCAGATTAATGTGGCAGGCGATCCTTACACCTATGATGATTTCGCCTATGCGACTCGCGAAGGTCTGGTGGTTGACGCGGTTGAACATACGGACCCGGAAGCCATTAAAGCTAATGACGTTGAAGGTCCTTTTGCGGAAATGGTGTTCGACTTGAAACTGACCCGCCTAGTAGATGGGGTGGATAACCAAGTTGTTGACCGCCCGCGCCTGGCCGTATAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>CTTAACGCATACCTGGAACGATCGACTAATAACAGTAGGGAGAAGGAGGTCAGACGGGGT</t>
+  </si>
+  <si>
+    <t>ATGAACTATCCAGCAGAGCCTTTCCGTATTAAATCTGTAGAAACCGTCTCTATGATTTCTCGCGATGAGCGTGTTAAGAAAATGCAGGAAGCCGGTTACAACACCTTTTTGCTGAACAGCAAGGACATTTATATCGACCTGCTGACCGATTCTGGCACAAACGCGATGTCGGATAAACAGTGGGCAGGCATGATGATTGGTGATGAAGCGTACGCAGGCTCTGAGAACTTCTACCATCTGGAAAAGACCGTGAAGGAACTGTTCGGTTTCAAACACATTGTGCCGACACATCAGGGCCGCGGTGCAGAAAACCTGCTGAGTCAGCTGGCAATCAAACCAGGGCAGTACGTCGCAGGGAATATGTACTTTACGACCACACGTTTTCATCAGGAGAAAAACGGTGCCACTTTCGTAGATATCGTTCGGGACGAGGCCCATGATGCCTCTCTGAACCTGCCGTTCAAAGGTGACATAGATCTGAACAAGCTGGCCACTTTAATTAAGGAGAAAGGCGCGGAGAACATTGCGTACATTTGCTTGGCGGTAACCGTGAATCTGGCGGGCGGCCAACCAGTGAGTATGGCAAATATGCGAGCCGTACACGAAATGGCATCGACCTACGGGATTAAAATCTTTTACGACGCGACCCGTTGCGTGGAGAACGCGTACTTTATAAAGGAACAGGAAGCCGGCTATGAAAACGTGTCCATTAAGGACATCGTCCACGAAATGTTCTCATATGCGGATGGCTGCACGATGTCCGGGAAAAAGGACTGTCTGGTTAACATCGGAGGCTTTTTGTGTATGAACGATGAGGAAATGTTTTCAGCGGCCAAAGAGCTGGTGGTGGTGTACGAGGGCATGCCTTCCTATGGTGGCTTAGCCGGTCGCGACATGGAAGCGATGGCGATCGGCCTTCGCGAAGCAATGCAGTACGAATATATCGAACATCGCGTTAAGCAGGTTCGCTACCTGGGTGATAAATTGCGCGAAGCGGGCGTGCCCATTGTAGAACCCACCGGAGGCCACGCGGTGTTTTTAGATGCTCGCCGCTTTTGCCCGCACCTGACGCAAGATCAATTCCCGGCTCAGTCACTAGCCGCCAGCATTTACATGGAAACTGGTGTGCGCAGCATGGAACGAGGCATCGTGTCAGCCGGCCGGTCGAAGGAAACCGGCGAGAACCATCGCCCGAAGCTAGAGACCGTGCGCCTGACGATTCCGCGCCGTGTATATACCTACGCACATATGGATGTCGTAGCGGATGGCATCATTAAACTTTACCAACACAAGGAAGATATACGTGGTCTGACGTTCGTTTACGAGCCCAAGCAGTTACGTTTCTTCACCGCGCGTTTCGATTTCATTTAA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGGCGTTATGCAGGATTTTCGACCAATTGATTATTCTCATTCATATTCGTAGGCAGGTCAGAATGAACTATCCAGCAGAGCCTTTCCGTATTAAATCTGTAGAAACCGTCTCTATGATTTCTCGCGATGAGCGTGTTAAGAAAATGCAGGAAGCCGGTTACAACACCTTTTTGCTGAACAGCAAGGACATTTATATCGACCTGCTGACCGATTCTGGCACAAACGCGATGTCGGATAAACAGTGGGCAGGCATGATGATTGGTGATGAAGCGTACGCAGGCTCTGAGAACTTCTACCATCTGGAAAAGACCGTGAAGGAACTGTTCGGTTTCAAACACATTGTGCCGACACATCAGGGCCGCGGTGCAGAAAACCTGCTGAGTCAGCTGGCAATCAAACCAGGGCAGTACGTCGCAGGGAATATGTACTTTACGACCACACGTTTTCATCAGGAGAAAAACGGTGCCACTTTCGTAGATATCGTTCGGGACGAGGCCCATGATGCCTCTCTGAACCTGCCGTTCAAAGGTGACATAGATCTGAACAAGCTGGCCACTTTAATTAAGGAGAAAGGCGCGGAGAACATTGCGTACATTTGCTTGGCGGTAACCGTGAATCTGGCGGGCGGCCAACCAGTGAGTATGGCAAATATGCGAGCCGTACACGAAATGGCATCGACCTACGGGATTAAAATCTTTTACGACGCGACCCGTTGCGTGGAGAACGCGTACTTTATAAAGGAACAGGAAGCCGGCTATGAAAACGTGTCCATTAAGGACATCGTCCACGAAATGTTCTCATATGCGGATGGCTGCACGATGTCCGGGAAAAAGGACTGTCTGGTTAACATCGGAGGCTTTTTGTGTATGAACGATGAGGAAATGTTTTCAGCGGCCAAAGAGCTGGTGGTGGTGTACGAGGGCATGCCTTCCTATGGTGGCTTAGCCGGTCGCGACATGGAAGCGATGGCGATCGGCCTTCGCGAAGCAATGCAGTACGAATATATCGAACATCGCGTTAAGCAGGTTCGCTACCTGGGTGATAAATTGCGCGAAGCGGGCGTGCCCATTGTAGAACCCACCGGAGGCCACGCGGTGTTTTTAGATGCTCGCCGCTTTTGCCCGCACCTGACGCAAGATCAATTCCCGGCTCAGTCACTAGCCGCCAGCATTTACATGGAAACTGGTGTGCGCAGCATGGAACGAGGCATCGTGTCAGCCGGCCGGTCGAAGGAAACCGGCGAGAACCATCGCCCGAAGCTAGAGACCGTGCGCCTGACGATTCCGCGCCGTGTATATACCTACGCACATATGGATGTCGTAGCGGATGGCATCATTAAACTTTACCAACACAAGGAAGATATACGTGGTCTGACGTTCGTTTACGAGCCCAAGCAGTTACGTTTCTTCACCGCGCGTTTCGATTTCATTTAATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>GCGTTATGCAGGATTTTCGACCAATTGATTATTCTCATTCATATTCGTAGGCAGGTCAGA</t>
+  </si>
+  <si>
+    <t>ATGAATTATCCTGCCGAACCGTTTCGCATTAAATCTGTGGAAACCGTCTCGATGATTAGTCGCGACGAACGTGTTAAAAAGATGCAGGAAGCGGGCTATAATACCTTTTTGTTAAACTCCAAGGACATTTATATCGATCTACTAACAGATTCAGGTACGAACGCGATGAGTGACAAACAGTGGGCGGGCATGATGATTGGAGATGAAGCGTATGCCGGCAGTGAGAACTTTTATCATCTCGAGAAGACCGTCAAAGAACTGTTTGGCTTCAAACATATCGTGCCGACGCATCAGGGCCGCGGCGCCGAAAACCTGTTATCGCAGCTTGCGATTAAACCGGGCCAATATGTGGCGGGGAACATGTACTTTACTACCACCCGCTTCCACCAGGAAAAGAATGGCGCAACCTTTGTTGATATTGTTCGTGACGAAGCGCACGATGCAAGTCTCAACCTGCCGTTCAAAGGTGATATTGATCTCAATAAGTTGGCAACCCTGATTAAAGAAAAGGGCGCTGAAAATATCGCGTACATCTGCCTCGCCGTTACAGTGAATCTGGCGGGTGGTCAGCCGGTTAGCATGGCGAACATGCGCGCTGTACACGAGATGGCCAGCACGTACGGTATAAAAATTTTCTATGATGCCACCCGCTGCGTAGAAAACGCGTATTTCATTAAAGAACAGGAGGCGGGCTACGAAAACGTGAGTATTAAGGATATCGTGCATGAAATGTTTAGCTACGCCGATGGTTGTACGATGAGTGGTAAAAAGGATTGTCTGGTTAACATTGGCGGTTTCCTGTGCATGAATGACGAAGAAATGTTCTCAGCGGCGAAGGAGCTGGTTGTCGTTTACGAGGGCATGCCGTCTTATGGGGGCCTGGCCGGCCGTGACATGGAGGCGATGGCGATTGGTCTGCGTGAGGCAATGCAGTATGAATATATCGAGCACCGCGTGAAGCAAGTGCGTTATCTGGGTGACAAGCTCCGCGAAGCCGGCGTGCCCATAGTAGAGCCTACCGGTGGCCATGCCGTGTTCCTGGATGCACGCCGCTTTTGCCCTCACCTGACCCAGGACCAGTTTCCGGCACAGTCCCTGGCCGCCAGTATCTATATGGAAACGGGCGTGCGCAGTATGGAACGTGGGATCGTTTCAGCAGGTCGTTCAAAGGAGACAGGCGAAAATCACCGTCCGAAACTGGAGACAGTGCGTCTGACCATTCCGCGTCGTGTTTATACATACGCGCATATGGATGTTGTCGCCGACGGAATCATTAAGCTGTATCAGCATAAGGAAGACATTCGTGGTCTGACCTTCGTCTATGAGCCGAAGCAGCTGCGTTTCTTTACAGCAAGGTTCGATTTCATCTAA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGCCGTGGTGAGTTTTTACACCTACTACGGGTCACAAAAGTCCGCCCCAAGGAGGGAAGTCTATGAATTATCCTGCCGAACCGTTTCGCATTAAATCTGTGGAAACCGTCTCGATGATTAGTCGCGACGAACGTGTTAAAAAGATGCAGGAAGCGGGCTATAATACCTTTTTGTTAAACTCCAAGGACATTTATATCGATCTACTAACAGATTCAGGTACGAACGCGATGAGTGACAAACAGTGGGCGGGCATGATGATTGGAGATGAAGCGTATGCCGGCAGTGAGAACTTTTATCATCTCGAGAAGACCGTCAAAGAACTGTTTGGCTTCAAACATATCGTGCCGACGCATCAGGGCCGCGGCGCCGAAAACCTGTTATCGCAGCTTGCGATTAAACCGGGCCAATATGTGGCGGGGAACATGTACTTTACTACCACCCGCTTCCACCAGGAAAAGAATGGCGCAACCTTTGTTGATATTGTTCGTGACGAAGCGCACGATGCAAGTCTCAACCTGCCGTTCAAAGGTGATATTGATCTCAATAAGTTGGCAACCCTGATTAAAGAAAAGGGCGCTGAAAATATCGCGTACATCTGCCTCGCCGTTACAGTGAATCTGGCGGGTGGTCAGCCGGTTAGCATGGCGAACATGCGCGCTGTACACGAGATGGCCAGCACGTACGGTATAAAAATTTTCTATGATGCCACCCGCTGCGTAGAAAACGCGTATTTCATTAAAGAACAGGAGGCGGGCTACGAAAACGTGAGTATTAAGGATATCGTGCATGAAATGTTTAGCTACGCCGATGGTTGTACGATGAGTGGTAAAAAGGATTGTCTGGTTAACATTGGCGGTTTCCTGTGCATGAATGACGAAGAAATGTTCTCAGCGGCGAAGGAGCTGGTTGTCGTTTACGAGGGCATGCCGTCTTATGGGGGCCTGGCCGGCCGTGACATGGAGGCGATGGCGATTGGTCTGCGTGAGGCAATGCAGTATGAATATATCGAGCACCGCGTGAAGCAAGTGCGTTATCTGGGTGACAAGCTCCGCGAAGCCGGCGTGCCCATAGTAGAGCCTACCGGTGGCCATGCCGTGTTCCTGGATGCACGCCGCTTTTGCCCTCACCTGACCCAGGACCAGTTTCCGGCACAGTCCCTGGCCGCCAGTATCTATATGGAAACGGGCGTGCGCAGTATGGAACGTGGGATCGTTTCAGCAGGTCGTTCAAAGGAGACAGGCGAAAATCACCGTCCGAAACTGGAGACAGTGCGTCTGACCATTCCGCGTCGTGTTTATACATACGCGCATATGGATGTTGTCGCCGACGGAATCATTAAGCTGTATCAGCATAAGGAAGACATTCGTGGTCTGACCTTCGTCTATGAGCCGAAGCAGCTGCGTTTCTTTACAGCAAGGTTCGATTTCATCTAATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>CCGTGGTGAGTTTTTACACCTACTACGGGTCACAAAAGTCCGCCCCAAGGAGGGAAGTCT</t>
+  </si>
+  <si>
+    <t>ATGAATTATCCGGCAGAGCCATTTCGTATTAAGTCTGTTGAAACCGTAAGCATGATCAGCCGAGATGAACGCGTCAAGAAAATGCAGGAAGCAGGCTACAATACGTTCCTTTTGAATAGTAAAGACATCTATATAGATCTGTTAACCGACAGCGGCACTAATGCGATGAGCGACAAGCAGTGGGCTGGAATGATGATCGGCGACGAGGCGTACGCGGGCAGTGAGAACTTTTATCACCTGGAGAAAACCGTTAAAGAACTGTTCGGCTTCAAACATATTGTCCCGACGCATCAAGGCCGTGGGGCTGAGAATCTGTTATCTCAGCTAGCCATTAAACCGGGGCAGTATGTTGCCGGGAACATGTATTTCACGACCACCCGCTTTCATCAGGAGAAAAATGGGGCGACCTTCGTGGATATCGTTCGGGATGAGGCCCATGACGCAAGCCTAAATTTGCCCTTCAAAGGTGATATCGACCTAAACAAACTGGCAACATTGATTAAAGAGAAAGGCGCTGAAAACATTGCATACATTTGCTTGGCGGTGACAGTCAATCTGGCAGGTGGCCAACCAGTGAGCATGGCCAACATGCGTGCTGTACATGAAATGGCCAGCACCTATGGCATTAAAATTTTCTATGATGCAACGCGTTGTGTAGAGAACGCGTACTTTATCAAGGAGCAGGAAGCGGGCTATGAAAACGTTAGCATTAAAGATATTGTTCATGAAATGTTTAGCTACGCCGATGGATGTACCATGTCAGGGAAAAAGGATTGCCTGGTTAATATTGGTGGTTTCTTATGTATGAACGATGAAGAAATGTTCTCAGCGGCGAAAGAACTCGTAGTGGTATACGAAGGGATGCCCTCCTACGGCGGTCTGGCCGGCCGTGATATGGAAGCAATGGCCATCGGCCTCCGCGAGGCCATGCAATATGAATATATTGAACACAGAGTCAAACAGGTGCGTTACCTTGGTGATAAACTCCGAGAAGCGGGTGTCCCAATTGTTGAGCCGACGGGTGGCCATGCGGTCTTTCTTGACGCACGCCGCTTCTGTCCGCACCTTACCCAGGACCAGTTTCCGGCCCAGAGCCTGGCGGCCTCCATCTACATGGAGACGGGCGTGCGGAGCATGGAGCGCGGCATCGTCAGCGCGGGTCGCTCCAAGGAAACCGGCGAGAATCACCGCCCGAAACTAGAAACGGTGCGTCTGACGATTCCGCGCCGTGTATACACCTATGCCCACATGGACGTTGTGGCAGATGGCATTATCAAACTGTATCAGCATAAAGAGGATATTCGTGGCCTGACTTTTGTCTACGAGCCGAAACAGCTCCGCTTTTTCACCGCCCGTTTTGACTTCATATGA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGCATAAGGCGAATTATCCAACACAAAACAGCCCAGTTTTTAACGTGTGAAGGAGGCGAACGATGAATTATCCGGCAGAGCCATTTCGTATTAAGTCTGTTGAAACCGTAAGCATGATCAGCCGAGATGAACGCGTCAAGAAAATGCAGGAAGCAGGCTACAATACGTTCCTTTTGAATAGTAAAGACATCTATATAGATCTGTTAACCGACAGCGGCACTAATGCGATGAGCGACAAGCAGTGGGCTGGAATGATGATCGGCGACGAGGCGTACGCGGGCAGTGAGAACTTTTATCACCTGGAGAAAACCGTTAAAGAACTGTTCGGCTTCAAACATATTGTCCCGACGCATCAAGGCCGTGGGGCTGAGAATCTGTTATCTCAGCTAGCCATTAAACCGGGGCAGTATGTTGCCGGGAACATGTATTTCACGACCACCCGCTTTCATCAGGAGAAAAATGGGGCGACCTTCGTGGATATCGTTCGGGATGAGGCCCATGACGCAAGCCTAAATTTGCCCTTCAAAGGTGATATCGACCTAAACAAACTGGCAACATTGATTAAAGAGAAAGGCGCTGAAAACATTGCATACATTTGCTTGGCGGTGACAGTCAATCTGGCAGGTGGCCAACCAGTGAGCATGGCCAACATGCGTGCTGTACATGAAATGGCCAGCACCTATGGCATTAAAATTTTCTATGATGCAACGCGTTGTGTAGAGAACGCGTACTTTATCAAGGAGCAGGAAGCGGGCTATGAAAACGTTAGCATTAAAGATATTGTTCATGAAATGTTTAGCTACGCCGATGGATGTACCATGTCAGGGAAAAAGGATTGCCTGGTTAATATTGGTGGTTTCTTATGTATGAACGATGAAGAAATGTTCTCAGCGGCGAAAGAACTCGTAGTGGTATACGAAGGGATGCCCTCCTACGGCGGTCTGGCCGGCCGTGATATGGAAGCAATGGCCATCGGCCTCCGCGAGGCCATGCAATATGAATATATTGAACACAGAGTCAAACAGGTGCGTTACCTTGGTGATAAACTCCGAGAAGCGGGTGTCCCAATTGTTGAGCCGACGGGTGGCCATGCGGTCTTTCTTGACGCACGCCGCTTCTGTCCGCACCTTACCCAGGACCAGTTTCCGGCCCAGAGCCTGGCGGCCTCCATCTACATGGAGACGGGCGTGCGGAGCATGGAGCGCGGCATCGTCAGCGCGGGTCGCTCCAAGGAAACCGGCGAGAATCACCGCCCGAAACTAGAAACGGTGCGTCTGACGATTCCGCGCCGTGTATACACCTATGCCCACATGGACGTTGTGGCAGATGGCATTATCAAACTGTATCAGCATAAAGAGGATATTCGTGGCCTGACTTTTGTCTACGAGCCGAAACAGCTCCGCTTTTTCACCGCCCGTTTTGACTTCATATGATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>CATAAGGCGAATTATCCAACACAAAACAGCCCAGTTTTTAACGTGTGAAGGAGGCGAACG</t>
+  </si>
+  <si>
+    <t>ATGAATTACCCAGCCGAACCATTTCGCATCAAAAGCGTGGAGACGGTCTCGATGATTCCGCGCGATGAACGTCTGAAGAAGATGCAAGAAGCTGGTTATAATACCTTTTTACTGAATTCTAAAGATATCTATATTGACCTCCTGACAGATAGTGGCACCAACGCTATGAGCGATAAACAGTGGGCGGGAATGATGATGGGCGATGAGGCATATGCCGGCAGCGAAAACTTTTACCATCTGGAACGAACTGTGCAGGAACTCTTCGGATTTAAACATATTGTTCCGACGCACCAGGGACGTGGGGCGGAAAATCTCCTCAGCCAGTTAGCGATTAAACCAGGCCAGTATGTGGCAGGCAATATGTATTTTACGACCACCCGTTATCATCAGGAGAAGAATGGTGCAGTGTTTGTCGATATTGTACGTGATGAAGCGCATGATGCGGGCCTCAACATTGCCTTTAAGGGCGATATTGATCTTAAAAAGCTCCAAAAATTAATAGATGAAAAGGGCGCGGAGAATATCGCGTATATTTGCTTAGCGGTGACTGTGAATCTGGCGGGTGGTCAACCTGTGAGCATGGCCAATATGCGTGCAGTGCGAGAACTGACGGAAGCACACGGCATCAAAGTGTTCTATGACGCAACACGTTGCGTAGAAAACGCCTATTTCATTAAAGAACAGGAACAGGGATTTGAAAACAAAAGCATCGCAGAGATTGTGCACGAAATGTTTAGCTATGCCGATGGATGTACCATGTCCGGTAAAAAGGATTGCCTTGTGAACATTGGTGGCTTCCTGTGCATGAATGACGATGAAATGTTTTCGAGCGCCAAAGAACTTGTAGTGGTTTACGAAGGTATGCCTAGTTATGGAGGCCTGGCAGGGCGAGATATGGAGGCAATGGCAATCGGCCTGCGCGAAGCCATGCAGTATGAGTACATCGAACACCGCGTTAAACAGGTTAGGTACCTGGGCGATAAGTTAAAAGCGGCCGGAGTGCCAATTGTCGAACCGGTTGGAGGCCATGCGGTGTTTCTGGACGCCCGTCGCTTTTGTGAACATCTCACACAAGACGAATTTCCAGCACAGAGTCTTGCGGCGAGCATATACGTAGAAACAGGCGTGCGCAGCATGGAACGCGGCATCATTTCCGCGGGCCGCAACAACGTTACTGGCGAACATCACCGTCCTAAACTGGAAACGGTCCGCCTGACCATACCACGCCGTGTTTATACCTATGCCCACATGGATGTCGTGGCCGATGGCATCATCAAACTTTATCAGCATAAGGAAGATATCCGCGGATTGAAATTTATTTATGAACCAAAACAGCTGCGGTTCTTCACCGCTCGATTCGACTACATTTAA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGTATTCGCTCGTTTGCTCCTGCACTCCAACAACCGTAACAGCAACAAGGACCTTAAGTAGAATGAATTACCCAGCCGAACCATTTCGCATCAAAAGCGTGGAGACGGTCTCGATGATTCCGCGCGATGAACGTCTGAAGAAGATGCAAGAAGCTGGTTATAATACCTTTTTACTGAATTCTAAAGATATCTATATTGACCTCCTGACAGATAGTGGCACCAACGCTATGAGCGATAAACAGTGGGCGGGAATGATGATGGGCGATGAGGCATATGCCGGCAGCGAAAACTTTTACCATCTGGAACGAACTGTGCAGGAACTCTTCGGATTTAAACATATTGTTCCGACGCACCAGGGACGTGGGGCGGAAAATCTCCTCAGCCAGTTAGCGATTAAACCAGGCCAGTATGTGGCAGGCAATATGTATTTTACGACCACCCGTTATCATCAGGAGAAGAATGGTGCAGTGTTTGTCGATATTGTACGTGATGAAGCGCATGATGCGGGCCTCAACATTGCCTTTAAGGGCGATATTGATCTTAAAAAGCTCCAAAAATTAATAGATGAAAAGGGCGCGGAGAATATCGCGTATATTTGCTTAGCGGTGACTGTGAATCTGGCGGGTGGTCAACCTGTGAGCATGGCCAATATGCGTGCAGTGCGAGAACTGACGGAAGCACACGGCATCAAAGTGTTCTATGACGCAACACGTTGCGTAGAAAACGCCTATTTCATTAAAGAACAGGAACAGGGATTTGAAAACAAAAGCATCGCAGAGATTGTGCACGAAATGTTTAGCTATGCCGATGGATGTACCATGTCCGGTAAAAAGGATTGCCTTGTGAACATTGGTGGCTTCCTGTGCATGAATGACGATGAAATGTTTTCGAGCGCCAAAGAACTTGTAGTGGTTTACGAAGGTATGCCTAGTTATGGAGGCCTGGCAGGGCGAGATATGGAGGCAATGGCAATCGGCCTGCGCGAAGCCATGCAGTATGAGTACATCGAACACCGCGTTAAACAGGTTAGGTACCTGGGCGATAAGTTAAAAGCGGCCGGAGTGCCAATTGTCGAACCGGTTGGAGGCCATGCGGTGTTTCTGGACGCCCGTCGCTTTTGTGAACATCTCACACAAGACGAATTTCCAGCACAGAGTCTTGCGGCGAGCATATACGTAGAAACAGGCGTGCGCAGCATGGAACGCGGCATCATTTCCGCGGGCCGCAACAACGTTACTGGCGAACATCACCGTCCTAAACTGGAAACGGTCCGCCTGACCATACCACGCCGTGTTTATACCTATGCCCACATGGATGTCGTGGCCGATGGCATCATCAAACTTTATCAGCATAAGGAAGATATCCGCGGATTGAAATTTATTTATGAACCAAAACAGCTGCGGTTCTTCACCGCTCGATTCGACTACATTTAATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>TATTCGCTCGTTTGCTCCTGCACTCCAACAACCGTAACAGCAACAAGGACCTTAAGTAGA</t>
+  </si>
+  <si>
+    <t>ATGAACTATCCCGCCGAGCCTTTCCGCATTAAAAGCGTTGAAACGGTGAGTATGATTCCACGTGACGAACGGTTGAAGAAGATGCAAGAAGCAGGTTACAACACCTTCCTGCTTAACTCTAAAGATATTTATATTGATTTGCTAACCGATTCTGGAACCAACGCGATGTCGGATAAGCAGTGGGCGGGCATGATGATGGGCGATGAGGCGTATGCAGGCAGTGAAAACTTCTATCACCTCGAGCGTACGGTACAGGAGCTTTTTGGGTTTAAACATATTGTGCCTACTCATCAGGGACGCGGTGCAGAAAACCTCTTAAGTCAACTGGCCATCAAACCGGGGCAGTACGTAGCGGGGAACATGTACTTCACCACTACCCGCTATCATCAGGAAAAGAACGGTGCCGTTTTTGTTGATATTGTTCGCGATGAGGCCCATGACGCAGGTCTGAACATTGCCTTCAAAGGCGATATTGACCTGAAAAAGTTACAGAAGCTGATTGATGAGAAAGGTGCTGAAAATATTGCGTACATTTGTCTTGCGGTGACCGTTAATCTGGCAGGAGGGCAACCGGTGTCCATGGCTAATATGCGCGCGGTGCGGGAATTAACAGAAGCGCACGGAATTAAAGTCTTTTATGACGCAACCCGTTGCGTGGAAAATGCGTACTTCATTAAAGAACAGGAACAAGGCTTTGAGAACAAAAGCATTGCGGAGATTGTTCACGAAATGTTCTCGTACGCCGATGGTTGCACGATGTCGGGCAAAAAGGACTGCCTAGTGAACATTGGCGGGTTCCTCTGCATGAACGATGACGAAATGTTTAGCTCTGCTAAAGAGCTGGTAGTTGTTTACGAGGGTATGCCTTCTTATGGCGGCCTGGCGGGCCGTGATATGGAAGCGATGGCTATCGGCCTGCGCGAAGCGATGCAATATGAATATATCGAACACCGCGTCAAACAAGTCAGATATCTTGGAGACAAACTTAAGGCGGCCGGTGTGCCAATCGTAGAGCCGGTCGGCGGCCATGCGGTGTTTTTGGACGCGCGTCGCTTTTGCGAACATCTGACGCAAGATGAGTTCCCGGCCCAGTCACTCGCGGCCTCAATCTACGTCGAAACGGGCGTACGGTCTATGGAACGCGGAATTATTTCAGCGGGCAGGAATAACGTTACCGGCGAGCATCACCGGCCCAAATTAGAGACTGTGCGCTTGACCATCCCGCGCCGCGTGTACACCTATGCGCACATGGATGTGGTGGCAGATGGCATTATTAAACTTTACCAGCACAAAGAAGATATTCGTGGTTTGAAATTTATTTATGAACCGAAACAGTTGCGCTTCTTCACCGCCCGCTTCGACTACATCTGA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGAGATTTCACTTAGGTCCGCTCATGGGGCCCCCGCAGTCGTATGTAGAAGGAGGTCAGTATATGAACTATCCCGCCGAGCCTTTCCGCATTAAAAGCGTTGAAACGGTGAGTATGATTCCACGTGACGAACGGTTGAAGAAGATGCAAGAAGCAGGTTACAACACCTTCCTGCTTAACTCTAAAGATATTTATATTGATTTGCTAACCGATTCTGGAACCAACGCGATGTCGGATAAGCAGTGGGCGGGCATGATGATGGGCGATGAGGCGTATGCAGGCAGTGAAAACTTCTATCACCTCGAGCGTACGGTACAGGAGCTTTTTGGGTTTAAACATATTGTGCCTACTCATCAGGGACGCGGTGCAGAAAACCTCTTAAGTCAACTGGCCATCAAACCGGGGCAGTACGTAGCGGGGAACATGTACTTCACCACTACCCGCTATCATCAGGAAAAGAACGGTGCCGTTTTTGTTGATATTGTTCGCGATGAGGCCCATGACGCAGGTCTGAACATTGCCTTCAAAGGCGATATTGACCTGAAAAAGTTACAGAAGCTGATTGATGAGAAAGGTGCTGAAAATATTGCGTACATTTGTCTTGCGGTGACCGTTAATCTGGCAGGAGGGCAACCGGTGTCCATGGCTAATATGCGCGCGGTGCGGGAATTAACAGAAGCGCACGGAATTAAAGTCTTTTATGACGCAACCCGTTGCGTGGAAAATGCGTACTTCATTAAAGAACAGGAACAAGGCTTTGAGAACAAAAGCATTGCGGAGATTGTTCACGAAATGTTCTCGTACGCCGATGGTTGCACGATGTCGGGCAAAAAGGACTGCCTAGTGAACATTGGCGGGTTCCTCTGCATGAACGATGACGAAATGTTTAGCTCTGCTAAAGAGCTGGTAGTTGTTTACGAGGGTATGCCTTCTTATGGCGGCCTGGCGGGCCGTGATATGGAAGCGATGGCTATCGGCCTGCGCGAAGCGATGCAATATGAATATATCGAACACCGCGTCAAACAAGTCAGATATCTTGGAGACAAACTTAAGGCGGCCGGTGTGCCAATCGTAGAGCCGGTCGGCGGCCATGCGGTGTTTTTGGACGCGCGTCGCTTTTGCGAACATCTGACGCAAGATGAGTTCCCGGCCCAGTCACTCGCGGCCTCAATCTACGTCGAAACGGGCGTACGGTCTATGGAACGCGGAATTATTTCAGCGGGCAGGAATAACGTTACCGGCGAGCATCACCGGCCCAAATTAGAGACTGTGCGCTTGACCATCCCGCGCCGCGTGTACACCTATGCGCACATGGATGTGGTGGCAGATGGCATTATTAAACTTTACCAGCACAAAGAAGATATTCGTGGTTTGAAATTTATTTATGAACCGAAACAGTTGCGCTTCTTCACCGCCCGCTTCGACTACATCTGATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>AGATTTCACTTAGGTCCGCTCATGGGGCCCCCGCAGTCGTATGTAGAAGGAGGTCAGTAT</t>
+  </si>
+  <si>
+    <t>ATGAATTACCCCGCCGAACCGTTTCGAATCAAATCGGTTGAAACAGTGTCCATGATTCCGCGCGATGAACGTCTTAAGAAGATGCAAGAAGCGGGTTACAATACCTTTCTGCTTAACAGCAAGGATATCTATATCGACCTGTTGACCGATTCCGGCACGAATGCAATGAGCGACAAACAGTGGGCGGGAATGATGATGGGCGATGAAGCCTACGCCGGTAGTGAAAATTTCTATCATCTTGAGCGAACGGTGCAGGAATTGTTCGGATTCAAACATATAGTCCCGACCCACCAAGGGCGTGGCGCCGAAAATCTGCTGAGTCAACTCGCAATCAAACCCGGCCAGTACGTGGCTGGCAATATGTATTTCACAACAACCCGCTATCACCAGGAAAAGAACGGAGCGGTGTTCGTCGACATCGTCCGCGATGAGGCGCATGATGCCGGCTTGAACATCGCCTTCAAAGGCGATATTGACCTGAAGAAACTCCAAAAACTGATCGACGAAAAAGGCGCCGAAAACATAGCATATATCTGCCTCGCCGTAACCGTTAACCTGGCCGGCGGCCAGCCGGTCAGCATGGCCAATATGCGCGCTGTACGCGAACTGACCGAGGCCCACGGTATTAAAGTCTTCTACGATGCCACACGATGTGTTGAAAATGCATACTTTATTAAAGAACAAGAACAGGGTTTTGAGAATAAAAGCATTGCCGAGATTGTGCACGAGATGTTTTCTTATGCCGATGGTTGTACCATGAGTGGTAAGAAAGATTGTTTAGTGAACATTGGCGGCTTTCTGTGCATGAATGATGACGAAATGTTCTCCTCGGCGAAAGAATTAGTCGTCGTGTATGAGGGGATGCCTTCTTATGGCGGGCTGGCGGGTCGCGACATGGAAGCCATGGCGATTGGACTGCGAGAGGCAATGCAGTATGAGTACATAGAGCATCGAGTGAAACAGGTACGATATTTGGGCGATAAGCTCAAAGCCGCCGGCGTTCCAATTGTCGAACCAGTCGGTGGCCACGCGGTGTTTCTCGATGCCCGCCGTTTTTGCGAACATCTAACTCAGGATGAATTTCCGGCGCAGTCACTTGCCGCTAGCATATACGTGGAAACCGGGGTGCGCTCAATGGAGAGGGGCATTATTTCGGCGGGCCGCAACAACGTCACAGGCGAACACCACCGTCCCAAACTGGAAACCGTTCGCCTGACGATCCCGCGCCGAGTTTATACCTATGCCCACATGGACGTTGTTGCTGATGGGATTATTAAACTCTATCAACACAAAGAAGACATTCGTGGTCTGAAATTCATCTACGAACCGAAACAGCTGCGCTTCTTCACCGCGCGCTTTGATTACATTTAA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGAGTATCGACTGCCTTCAATCCCTGGACCTCATATACTCTGAGTTAGAAGGATGTTGTTAAATGAATTACCCCGCCGAACCGTTTCGAATCAAATCGGTTGAAACAGTGTCCATGATTCCGCGCGATGAACGTCTTAAGAAGATGCAAGAAGCGGGTTACAATACCTTTCTGCTTAACAGCAAGGATATCTATATCGACCTGTTGACCGATTCCGGCACGAATGCAATGAGCGACAAACAGTGGGCGGGAATGATGATGGGCGATGAAGCCTACGCCGGTAGTGAAAATTTCTATCATCTTGAGCGAACGGTGCAGGAATTGTTCGGATTCAAACATATAGTCCCGACCCACCAAGGGCGTGGCGCCGAAAATCTGCTGAGTCAACTCGCAATCAAACCCGGCCAGTACGTGGCTGGCAATATGTATTTCACAACAACCCGCTATCACCAGGAAAAGAACGGAGCGGTGTTCGTCGACATCGTCCGCGATGAGGCGCATGATGCCGGCTTGAACATCGCCTTCAAAGGCGATATTGACCTGAAGAAACTCCAAAAACTGATCGACGAAAAAGGCGCCGAAAACATAGCATATATCTGCCTCGCCGTAACCGTTAACCTGGCCGGCGGCCAGCCGGTCAGCATGGCCAATATGCGCGCTGTACGCGAACTGACCGAGGCCCACGGTATTAAAGTCTTCTACGATGCCACACGATGTGTTGAAAATGCATACTTTATTAAAGAACAAGAACAGGGTTTTGAGAATAAAAGCATTGCCGAGATTGTGCACGAGATGTTTTCTTATGCCGATGGTTGTACCATGAGTGGTAAGAAAGATTGTTTAGTGAACATTGGCGGCTTTCTGTGCATGAATGATGACGAAATGTTCTCCTCGGCGAAAGAATTAGTCGTCGTGTATGAGGGGATGCCTTCTTATGGCGGGCTGGCGGGTCGCGACATGGAAGCCATGGCGATTGGACTGCGAGAGGCAATGCAGTATGAGTACATAGAGCATCGAGTGAAACAGGTACGATATTTGGGCGATAAGCTCAAAGCCGCCGGCGTTCCAATTGTCGAACCAGTCGGTGGCCACGCGGTGTTTCTCGATGCCCGCCGTTTTTGCGAACATCTAACTCAGGATGAATTTCCGGCGCAGTCACTTGCCGCTAGCATATACGTGGAAACCGGGGTGCGCTCAATGGAGAGGGGCATTATTTCGGCGGGCCGCAACAACGTCACAGGCGAACACCACCGTCCCAAACTGGAAACCGTTCGCCTGACGATCCCGCGCCGAGTTTATACCTATGCCCACATGGACGTTGTTGCTGATGGGATTATTAAACTCTATCAACACAAAGAAGACATTCGTGGTCTGAAATTCATCTACGAACCGAAACAGCTGCGCTTCTTCACCGCGCGCTTTGATTACATTTAATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>AGTATCGACTGCCTTCAATCCCTGGACCTCATATACTCTGAGTTAGAAGGATGTTGTTAA</t>
+  </si>
+  <si>
+    <t>ATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTGTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCTATGAGCCAAGCATTTACCGAGTCTGTTAAAACCTCGCTCGGCCCGAATGCCACCCCGCGCGCGAAAAAGCTGATCGCAAGCTTAGTACAGCATGTTCATGATTTTGCGCGCGAGAATCATCTGACAACCGAAGACTGGCTTTGGGGTGTGGATTTTATTAATCGTATTGGCCAGATGAGTGATTCCCGCCGTAATGAAGGAATTCTCGTGTGTGATATCATTGGACTGGAAACCCTTGTTGATGCGTTAACCAATGAATCAGAACAGAGCAATCATACCTCAAGTGCGATTCTGGGACCGTTTTACCTTCCGGACAGCCCTGTGTATCCTAATGGAGGCTCAATTGTTCAGAAAGCCATTCCTACCGATGTGAAATGCTTCGTACGTGGCAAAGTGACCGATACCGAGGGGAAACCACTTGGTGGTGCCCAGTTGGAAGTGTGGCAGTGCAACAGCGCGGGTTTCTACTCACAGCAAGCGGATCATGATGGGCCGGAATTCAACTTACGGGGTACCTTCATTACCGACGATGAGGGGAATTACAGCTTTGAATGCTTACGGCCGACCAGTTATCCTATCCCGTACGACGGACCGGCTGGCGATCTGTTAAAAATTATGGACCGCCATCCAAACCGTCCCAGCCACATTCACTGGCGGGTGTCACACCCAGGTTACCACACCTTAATTACACAGATCTATGATGCGGAATGTCCGTACACTAATAACGACTCCGTCTATGCCGTAAAAGATGACATTATTGTCCACTTTGAAAAGGTAGACAACAAAGATAAGGATCTGGTAGGTAAAGTGGAGTATAAACTTGATTATGATATTTCCTTGGCGACGGAGAGTTCAATCCAGGAAGCGCGCGCCGCGGCAAAAGCCCGCCAGGATGCTGAAATTAAACTCTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>GTGACGTACAAGAGGCTACCAGTTTTGTGTTACATATCACGTACGAAGGAGCATACTTCT</t>
+  </si>
+  <si>
+    <t>ATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTAATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGGATGAGCCAGGCATTCACGGAGAGCGTCAAAACGTCGCTAGGCCCGAACGCAACCCCGCGCGCTAAAAAGCTGATTGCCTCACTGGTGCAGCACGTGCACGATTTTGCGCGCGAGAACCATCTCACTACTGAAGATTGGCTATGGGGAGTGGATTTTATTAATCGTATCGGACAGATGAGCGATAGTCGACGTAACGAGGGCATCCTTGTGTGTGATATTATCGGGCTTGAGACGCTCGTCGATGCCTTAACAAACGAATCCGAACAGAGCAACCACACCAGCAGCGCGATCCTGGGTCCGTTCTACCTGCCGGATTCGCCTGTATATCCGAACGGCGGTTCGATTGTGCAAAAAGCCATTCCCACGGATGTGAAATGCTTCGTTCGCGGCAAGGTGACAGACACGGAAGGCAAACCACTAGGTGGAGCACAGCTGGAAGTTTGGCAATGCAATAGCGCAGGATTTTACTCCCAGCAGGCGGACCACGATGGCCCCGAATTCAATCTGCGGGGTACGTTTATCACAGACGACGAAGGTAACTATTCGTTCGAATGTCTCCGTCCGACGAGTTATCCAATCCCATACGATGGACCGGCCGGCGATTTACTGAAGATTATGGATCGTCATCCGAACCGCCCGAGCCACATTCACTGGCGCGTTTCGCATCCAGGGTACCACACGCTTATTACCCAAATCTACGACGCAGAATGTCCATATACCAACAATGATAGTGTGTACGCCGTGAAAGATGACATTATTGTGCACTTTGAGAAGGTCGACAACAAGGATAAGGATCTGGTTGGCAAAGTTGAATACAAGCTTGATTACGATATCAGCCTGGCGACTGAATCTTCCATCCAGGAGGCTAGAGCAGCCGCAAAAGCTCGCCAAGATGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AATGGCCTAGCAGCTTTATCTCAGGTTCAATGCATTTATATGAAGGGGGTAATACAGCGG</t>
+  </si>
+  <si>
+    <t>ATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAA</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGTAAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAGATGTCACAGGCTTTTACCGAAAGTGTCAAAACCTCCCTTGGTCCGAACGCCACGCCCCGCGCCAAGAAATTAATTGCGTCACTGGTCCAGCATGTGCATGATTTTGCGCGTGAAAACCATTTGACCACCGAAGACTGGCTCTGGGGCGTAGATTTTATTAACCGTATTGGCCAGATGAGTGATTCTCGCCGTAATGAGGGGATTTTAGTTTGCGACATTATCGGCCTTGAAACCTTGGTGGATGCGTTGACCAATGAATCTGAGCAGAGCAATCATACCAGCTCTGCGATTCTGGGTCCTTTTTATTTGCCTGACAGCCCGGTGTATCCGAACGGCGGAAGTATTGTACAGAAAGCCATTCCTACTGACGTGAAGTGCTTCGTTCGTGGAAAGGTGACTGATACCGAAGGCAAGCCGCTAGGCGGTGCCCAGCTCGAAGTGTGGCAGTGCAACTCGGCGGGTTTCTACAGTCAGCAGGCCGATCATGATGGACCAGAATTCAATCTGCGTGGCACTTTCATTACGGATGACGAAGGTAATTATAGTTTTGAGTGCTTACGCCCTACCTCGTATCCAATTCCATACGACGGCCCGGCGGGCGACTTGCTGAAGATCATGGATCGCCACCCGAATCGCCCATCGCATATCCACTGGCGTGTGTCTCATCCGGGCTATCACACGTTAATTACGCAAATTTATGATGCCGAATGCCCGTATACCAACAACGACAGCGTATACGCCGTTAAAGATGATATCATCGTGCACTTTGAAAAAGTCGATAACAAAGATAAGGATCTAGTCGGAAAGGTCGAATATAAACTGGATTATGACATCTCGCTGGCGACCGAATCATCGATCCAGGAAGCGCGTGCGGCGGCGAAAGCCCGCCAGGACGCGGAAATTAAACTGTAAACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>AAGGTCAAAGTTCACGTACGAGTGTTCGTAGTAATAAAGAACGAAGGAGGATTCTGCTAG</t>
+  </si>
+  <si>
+    <t>ATGACAAAATATAACGAGGCGTATTGTGATGTGTTAATCGTTGGTGCAGGCCCTGCCGGCGTAATGGCGGCCGCGCACTTACTTAGTTATGGTACCACGGCAAGACCCCATCGTGTGCGTATTTTCGACGCCACAAAAGAAGTGAATGGCAGCGATGAATCAACCGAAAGCCTGTCAACGGATGTGATTGCCGATGCACTAAACTCTGGCGCTTCCGGGCCGGAAAAAGATGCAGCGTCGACGACTGAAGATTTACCGATGCTTGTGACCACCCTGCAGGTTTCGGATGTCCTGCACGATACGGGTGATGATACAAAAATTGCTTACCGCGAGACTGCAACCGAACAGCAAGTGCTGCTGCTGGCTGACACCACCGCCAACACCTCCTCTACAATGAATCCTCGCTCAATGTGCGAAGCAGGCTGCCGTTTTCATCAAATTTATCAGGGCCATTGTTTCCCTGAGTACGAATTAGATAGCGAAAGACTGCGCTCAGTCGACGGCCGCGCACAGGTGCTCGAAGATGAGCATGAAACTGGGCAGCTGAGACTGGAACGTCTGGGACGCCCCGAAGAACTGCTGGAATTGGACGAAGAAAATTCCATGAGCGTTGTTACTAATCTGAAGGCGGCTCCGTACAAATTCTTGATGAAGGATGTGGATGAAAATTTTCCGGGCGAATTAAGTACCTCCGGCGGTAAAACCACGTCAATCTCCGCCGATGAGTCAGCCATTGATGCCGCGTTACATGCAGTATGGGACGCCGATGATTTGGGTGCCGCGTGGCATTTGGATGAAGCAAGCGGCCTGCGTGCCGTGGACTGGAATGCAGCACAGTGGTTCAAAAGTGGTCAGCCGTGGACGCCCGACGCGGCCAAATCTTTACAGGAAGGCCGGGTGTTTCTGGCCGGGGACGCTCGTCACCGCCATCCTCCCCTTACGGGCATTGGTAAAAATACGAGCATTGCGGACTGCTACAACCTGACCTGGAAATTACTGGGAGTGCTGCTCGGCGTGGCACGCGCCGATCCGGCACGTACCTACGTGGCGGAACGCGTGTATATTCGCATGCGTGCTGCGACCGACATTGCCGTGGATGCGGAAATGGAGAGCCTGGCGGCCAAATGGATCACTGTTCAGCTGACCTTGTCACGCTCATGGATCAGCTCCGCCAAGGAAGCGGAACGCTGGGATGCAGTGCTGCGTGATAGTGCTATGAGCGCCAGCAAACCAATGTGGACCACATCTGACATGCGCGCGTCGTTTGATGCAGGATTAATGGGGCACGGTCATGCTCACGATCATGTGACCCCTACCATTAAAGAATTTGCGTCAAGCAGTATTTCTCGTTCAATTAGCGAACTGGCGAGCACGAGCTGGTGGGAATCCCGCGGCTGGGGCAACGGTGGCCCGTTTGAATCATTAATGGAAGACGCGCGCTGGACCGGCGCTGTGGAAAGTAACTGCCGTTACGCGGCGTATGACCGCGATGCGCCGGTTCTACACGAACATGTGGCATGGGTTACTAGGTTTACCAGCCGTGCTCGTACGGCCGTACTGGAGGCGGCGGTGGGCCAGGCGCACGTTGTTGATTGTTGGGATGTGGGGTTGGTGGAACCGGCTCTGGATGATTTAGACTCCGCAGGAGCAGGTTTGCACGTGGCCCATCACGCGGACCAGTGGCCTGCTCAACTGGATGAAGCGGTGTGGCCGCGCGAATCGTTAAGCGACTGGCGGATTGTCACAGATACCAGCGCGACTGGTGAAGGCTATCAGACCAGTCCCCGCGAAGCACCGGGCGATTATGCCGATTTAAACGCGGATAACGCCAAAGCTCACTTTAACGGCCAGTTTGCAGGACACAAAGCCTACGGTGATGCGGCCGCAGCGGACGGCGGCGGGTGTCATGGACGTATTCTCGTGGGTCCAGCTGTTCGTGGCCGCCATTTACATCGCGAGATTCCGCTGGGAGAAGAATGTCAGCGTGCCGCACAGCCGCTGTTTAAAGAGGTTTGA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGGAACAAATCGATACCCATAGCGACCATAGAAATACACGGCATGGGAGGTAACTGTAAAAGATGACAAAATATAACGAGGCGTATTGTGATGTGTTAATCGTTGGTGCAGGCCCTGCCGGCGTAATGGCGGCCGCGCACTTACTTAGTTATGGTACCACGGCAAGACCCCATCGTGTGCGTATTTTCGACGCCACAAAAGAAGTGAATGGCAGCGATGAATCAACCGAAAGCCTGTCAACGGATGTGATTGCCGATGCACTAAACTCTGGCGCTTCCGGGCCGGAAAAAGATGCAGCGTCGACGACTGAAGATTTACCGATGCTTGTGACCACCCTGCAGGTTTCGGATGTCCTGCACGATACGGGTGATGATACAAAAATTGCTTACCGCGAGACTGCAACCGAACAGCAAGTGCTGCTGCTGGCTGACACCACCGCCAACACCTCCTCTACAATGAATCCTCGCTCAATGTGCGAAGCAGGCTGCCGTTTTCATCAAATTTATCAGGGCCATTGTTTCCCTGAGTACGAATTAGATAGCGAAAGACTGCGCTCAGTCGACGGCCGCGCACAGGTGCTCGAAGATGAGCATGAAACTGGGCAGCTGAGACTGGAACGTCTGGGACGCCCCGAAGAACTGCTGGAATTGGACGAAGAAAATTCCATGAGCGTTGTTACTAATCTGAAGGCGGCTCCGTACAAATTCTTGATGAAGGATGTGGATGAAAATTTTCCGGGCGAATTAAGTACCTCCGGCGGTAAAACCACGTCAATCTCCGCCGATGAGTCAGCCATTGATGCCGCGTTACATGCAGTATGGGACGCCGATGATTTGGGTGCCGCGTGGCATTTGGATGAAGCAAGCGGCCTGCGTGCCGTGGACTGGAATGCAGCACAGTGGTTCAAAAGTGGTCAGCCGTGGACGCCCGACGCGGCCAAATCTTTACAGGAAGGCCGGGTGTTTCTGGCCGGGGACGCTCGTCACCGCCATCCTCCCCTTACGGGCATTGGTAAAAATACGAGCATTGCGGACTGCTACAACCTGACCTGGAAATTACTGGGAGTGCTGCTCGGCGTGGCACGCGCCGATCCGGCACGTACCTACGTGGCGGAACGCGTGTATATTCGCATGCGTGCTGCGACCGACATTGCCGTGGATGCGGAAATGGAGAGCCTGGCGGCCAAATGGATCACTGTTCAGCTGACCTTGTCACGCTCATGGATCAGCTCCGCCAAGGAAGCGGAACGCTGGGATGCAGTGCTGCGTGATAGTGCTATGAGCGCCAGCAAACCAATGTGGACCACATCTGACATGCGCGCGTCGTTTGATGCAGGATTAATGGGGCACGGTCATGCTCACGATCATGTGACCCCTACCATTAAAGAATTTGCGTCAAGCAGTATTTCTCGTTCAATTAGCGAACTGGCGAGCACGAGCTGGTGGGAATCCCGCGGCTGGGGCAACGGTGGCCCGTTTGAATCATTAATGGAAGACGCGCGCTGGACCGGCGCTGTGGAAAGTAACTGCCGTTACGCGGCGTATGACCGCGATGCGCCGGTTCTACACGAACATGTGGCATGGGTTACTAGGTTTACCAGCCGTGCTCGTACGGCCGTACTGGAGGCGGCGGTGGGCCAGGCGCACGTTGTTGATTGTTGGGATGTGGGGTTGGTGGAACCGGCTCTGGATGATTTAGACTCCGCAGGAGCAGGTTTGCACGTGGCCCATCACGCGGACCAGTGGCCTGCTCAACTGGATGAAGCGGTGTGGCCGCGCGAATCGTTAAGCGACTGGCGGATTGTCACAGATACCAGCGCGACTGGTGAAGGCTATCAGACCAGTCCCCGCGAAGCACCGGGCGATTATGCCGATTTAAACGCGGATAACGCCAAAGCTCACTTTAACGGCCAGTTTGCAGGACACAAAGCCTACGGTGATGCGGCCGCAGCGGACGGCGGCGGGTGTCATGGACGTATTCTCGTGGGTCCAGCTGTTCGTGGCCGCCATTTACATCGCGAGATTCCGCTGGGAGAAGAATGTCAGCGTGCCGCACAGCCGCTGTTTAAAGAGGTTTGAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>GAACAAATCGATACCCATAGCGACCATAGAAATACACGGCATGGGAGGTAACTGTAAAAG</t>
+  </si>
+  <si>
+    <t>ATGACCAAATACAACGAAGCATACTGTGATGTCCTGATCGTTGGGGCTGGCCCGGCGGGTGTTATGGCGGCCGCCCACTTACTGAGTTATGGTACCACGGCGCGCCCTCATCGCGTGAGGATATTTGATGCAACTAAAGAAGTAAATGGCTCTGATGAAAGCACTGAATCATTGAGTACGGATGTGATTGCCGACGCGCTGAACTCAGGCGCGTCTGGCCCCGAGAAAGACGCCGCTTCTACAACCGAGGACCTGCCGATGTTGGTTACAACCTTACAGGTGAGTGATGTGCTGCATGATACGGGTGATGACACAAAAATTGCGTACCGTGAAACCGCCACCGAACAACAGGTTCTGCTGCTGGCCGATACCACTGCAAACACAAGCAGCACGATGAATCCGCGGTCAATGTGCGAGGCCGGCTGCCGTTTCCACCAGATCTATCAAGGCCATTGCTTTCCGGAATATGAACTGGATTCAGAGCGCTTGCGCAGCGTCGATGGTCGCGCCCAAGTGCTGGAAGACGAACACGAAACAGGTCAATTACGCTTGGAACGCCTTGGACGGCCTGAGGAGCTTCTGGAATTAGATGAAGAAAACTCGATGTCGGTGGTCACCAATCTTAAAGCTGCGCCGTATAAATTTCTGATGAAAGATGTAGATGAAAATTTTCCGGGCGAACTGAGTACCTCCGGTGGTAAAACGACATCAATCTCGGCCGATGAGAGCGCGATCGATGCTGCATTGCATGCTGTATGGGACGCCGATGATCTGGGCGCAGCCTGGCATCTGGATGAAGCATCTGGCCTTCGTGCGGTTGATTGGAACGCCGCCCAGTGGTTTAAAAGTGGACAGCCGTGGACCCCAGACGCGGCCAAGAGCCTGCAAGAAGGTCGTGTGTTTCTTGCCGGTGATGCCCGTCATCGCCATCCGCCACTGACGGGCATCGGCAAGAACACTTCAATCGCAGACTGCTACAATCTGACTTGGAAACTGCTGGGTGTGCTGTTGGGTGTAGCCCGCGCCGATCCGGCGCGTACCTACGTTGCGGAGCGTGTCTATATTCGCATGCGTGCTGCGACGGACATCGCCGTCGATGCCGAAATGGAATCTCTGGCTGCGAAATGGATTACCGTTCAGTTGACCTTATCGCGTTCATGGATTAGCTCGGCGAAAGAGGCTGAACGTTGGGATGCGGTTTTACGTGATAGCGCCATGAGCGCCTCTAAGCCGATGTGGACCACCAGCGATATGAGAGCCTCATTTGACGCTGGTCTCATGGGGCATGGCCATGCCCACGATCATGTGACTCCGACAATTAAAGAATTTGCCAGCAGCTCCATTAGCCGTTCGATCAGCGAATTAGCATCCACTTCTTGGTGGGAATCTCGTGGATGGGGCAACGGCGGGCCATTTGAATCGTTAATGGAAGATGCCCGCTGGACGGGGGCGGTAGAGAGTAATTGCAGGTATGCAGCTTATGATCGCGATGCACCTGTCCTGCATGAACATGTTGCGTGGGTTACACGCTTTACATCGCGTGCCCGTACGGCGGTGCTAGAAGCGGCAGTGGGCCAGGCCCACGTGGTTGACTGCTGGGATGTGGGCCTGGTCGAGCCGGCTTTAGATGACTTAGACAGTGCCGGCGCGGGCCTTCATGTGGCGCACCATGCGGATCAGTGGCCGGCGCAGCTGGATGAGGCAGTGTGGCCCCGCGAAAGCCTGTCGGACTGGCGCATCGTAACCGATACTTCGGCTACCGGCGAAGGTTACCAGACCTCTCCACGTGAAGCGCCGGGCGACTACGCCGACCTGAACGCAGACAACGCCAAGGCGCATTTTAACGGCCAGTTCGCCGGACATAAAGCCTACGGGGACGCCGCCGCGGCCGATGGTGGCGGCTGCCACGGCCGGATTCTAGTTGGTCCTGCGGTACGCGGCCGTCATTTGCATCGCGAAATTCCGTTGGGCGAGGAATGTCAGCGGGCGGCCCAACCCCTGTTTAAGGAAGTCTGA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGTGTCCATGAGTTGTTGGTGGCACCAGTAAAGAAGATGAACCATAGGGAAAGGAGCGTTTGATGACCAAATACAACGAAGCATACTGTGATGTCCTGATCGTTGGGGCTGGCCCGGCGGGTGTTATGGCGGCCGCCCACTTACTGAGTTATGGTACCACGGCGCGCCCTCATCGCGTGAGGATATTTGATGCAACTAAAGAAGTAAATGGCTCTGATGAAAGCACTGAATCATTGAGTACGGATGTGATTGCCGACGCGCTGAACTCAGGCGCGTCTGGCCCCGAGAAAGACGCCGCTTCTACAACCGAGGACCTGCCGATGTTGGTTACAACCTTACAGGTGAGTGATGTGCTGCATGATACGGGTGATGACACAAAAATTGCGTACCGTGAAACCGCCACCGAACAACAGGTTCTGCTGCTGGCCGATACCACTGCAAACACAAGCAGCACGATGAATCCGCGGTCAATGTGCGAGGCCGGCTGCCGTTTCCACCAGATCTATCAAGGCCATTGCTTTCCGGAATATGAACTGGATTCAGAGCGCTTGCGCAGCGTCGATGGTCGCGCCCAAGTGCTGGAAGACGAACACGAAACAGGTCAATTACGCTTGGAACGCCTTGGACGGCCTGAGGAGCTTCTGGAATTAGATGAAGAAAACTCGATGTCGGTGGTCACCAATCTTAAAGCTGCGCCGTATAAATTTCTGATGAAAGATGTAGATGAAAATTTTCCGGGCGAACTGAGTACCTCCGGTGGTAAAACGACATCAATCTCGGCCGATGAGAGCGCGATCGATGCTGCATTGCATGCTGTATGGGACGCCGATGATCTGGGCGCAGCCTGGCATCTGGATGAAGCATCTGGCCTTCGTGCGGTTGATTGGAACGCCGCCCAGTGGTTTAAAAGTGGACAGCCGTGGACCCCAGACGCGGCCAAGAGCCTGCAAGAAGGTCGTGTGTTTCTTGCCGGTGATGCCCGTCATCGCCATCCGCCACTGACGGGCATCGGCAAGAACACTTCAATCGCAGACTGCTACAATCTGACTTGGAAACTGCTGGGTGTGCTGTTGGGTGTAGCCCGCGCCGATCCGGCGCGTACCTACGTTGCGGAGCGTGTCTATATTCGCATGCGTGCTGCGACGGACATCGCCGTCGATGCCGAAATGGAATCTCTGGCTGCGAAATGGATTACCGTTCAGTTGACCTTATCGCGTTCATGGATTAGCTCGGCGAAAGAGGCTGAACGTTGGGATGCGGTTTTACGTGATAGCGCCATGAGCGCCTCTAAGCCGATGTGGACCACCAGCGATATGAGAGCCTCATTTGACGCTGGTCTCATGGGGCATGGCCATGCCCACGATCATGTGACTCCGACAATTAAAGAATTTGCCAGCAGCTCCATTAGCCGTTCGATCAGCGAATTAGCATCCACTTCTTGGTGGGAATCTCGTGGATGGGGCAACGGCGGGCCATTTGAATCGTTAATGGAAGATGCCCGCTGGACGGGGGCGGTAGAGAGTAATTGCAGGTATGCAGCTTATGATCGCGATGCACCTGTCCTGCATGAACATGTTGCGTGGGTTACACGCTTTACATCGCGTGCCCGTACGGCGGTGCTAGAAGCGGCAGTGGGCCAGGCCCACGTGGTTGACTGCTGGGATGTGGGCCTGGTCGAGCCGGCTTTAGATGACTTAGACAGTGCCGGCGCGGGCCTTCATGTGGCGCACCATGCGGATCAGTGGCCGGCGCAGCTGGATGAGGCAGTGTGGCCCCGCGAAAGCCTGTCGGACTGGCGCATCGTAACCGATACTTCGGCTACCGGCGAAGGTTACCAGACCTCTCCACGTGAAGCGCCGGGCGACTACGCCGACCTGAACGCAGACAACGCCAAGGCGCATTTTAACGGCCAGTTCGCCGGACATAAAGCCTACGGGGACGCCGCCGCGGCCGATGGTGGCGGCTGCCACGGCCGGATTCTAGTTGGTCCTGCGGTACGCGGCCGTCATTTGCATCGCGAAATTCCGTTGGGCGAGGAATGTCAGCGGGCGGCCCAACCCCTGTTTAAGGAAGTCTGAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>TGTCCATGAGTTGTTGGTGGCACCAGTAAAGAAGATGAACCATAGGGAAAGGAGCGTTTG</t>
+  </si>
+  <si>
+    <t>ATGACTAAATACAATGAGGCATATTGCGATGTTCTCATTGTCGGCGCGGGTCCGGCGGGCGTAATGGCCGCGGCGCATCTGCTGTCGTATGGCACAACGGCTCGTCCTCATCGCGTTCGAATTTTCGACGCAACGAAAGAAGTAAATGGAAGCGATGAAAGCACCGAATCGCTGTCGACTGACGTTATTGCTGATGCGCTGAATAGCGGTGCAAGCGGGCCTGAGAAAGATGCCGCTAGCACCACCGAGGATTTACCTATGTTGGTGACTACCCTGCAGGTGTCTGATGTTCTGCATGACACCGGCGATGATACAAAAATTGCCTATCGCGAGACGGCAACGGAACAGCAGGTACTTCTTCTAGCCGACACGACCGCCAATACCTCAAGTACGATGAATCCGCGCTCCATGTGCGAAGCTGGCTGTCGTTTTCATCAAATTTATCAGGGTCATTGCTTTCCGGAATATGAGTTAGACTCAGAACGCCTGCGCAGTGTTGATGGACGCGCGCAGGTTCTAGAGGATGAACATGAAACCGGCCAGCTGCGCCTCGAACGGTTAGGCCGTCCCGAGGAACTGCTGGAGCTGGATGAGGAAAATTCTATGTCGGTTGTTACGAATTTAAAAGCCGCGCCTTATAAGTTTCTCATGAAAGACGTGGATGAAAATTTTCCGGGGGAATTATCTACATCGGGCGGTAAGACCACCAGCATCAGCGCCGATGAGTCTGCGATAGATGCAGCCCTCCATGCAGTATGGGATGCGGATGATCTTGGCGCCGCATGGCACCTAGATGAGGCCTCTGGCCTCCGCGCAGTAGATTGGAACGCGGCGCAGTGGTTCAAGTCGGGCCAGCCGTGGACCCCAGACGCCGCCAAGTCACTGCAGGAAGGTAGGGTGTTTCTGGCCGGTGACGCGCGACATCGTCATCCGCCGTTGACCGGGATTGGTAAAAACACGAGCATCGCCGATTGCTACAATCTCACCTGGAAACTGCTGGGGGTTCTTCTGGGGGTGGCGCGTGCCGATCCTGCACGCACCTATGTTGCCGAACGAGTCTACATTCGCATGCGTGCGGCGACCGACATTGCGGTGGATGCCGAAATGGAAAGTCTTGCCGCCAAATGGATCACAGTACAGCTGACGTTGAGCCGCTCGTGGATCTCGTCAGCCAAAGAAGCTGAGCGCTGGGATGCGGTCTTGCGCGATAGCGCTATGAGCGCCAGCAAACCTATGTGGACGACGTCTGATATGCGTGCGAGCTTCGATGCTGGCCTGATGGGGCATGGACACGCCCATGATCATGTGACGCCGACCATCAAAGAATTTGCATCGAGCTCGATTTCAAGAAGCATTAGCGAACTCGCGAGCACCTCCTGGTGGGAAAGCCGCGGTTGGGGCAACGGCGGCCCGTTCGAAAGCCTTATGGAGGATGCGCGCTGGACCGGTGCGGTCGAAAGCAACTGTCGTTACGCGGCGTACGATCGCGATGCACCGGTTTTGCATGAACACGTGGCGTGGGTGACCCGTTTTACGTCGCGTGCCCGAACTGCTGTGTTGGAAGCGGCAGTAGGCCAGGCGCACGTAGTCGATTGCTGGGATGTGGGACTGGTTGAGCCTGCGCTGGACGATCTGGACTCAGCCGGTGCCGGGTTACATGTTGCCCATCATGCAGACCAGTGGCCTGCGCAACTAGATGAGGCCGTGTGGCCTCGTGAGAGTCTGAGCGATTGGCGTATTGTAACCGATACCAGTGCCACCGGGGAAGGCTATCAAACCAGCCCGCGCGAAGCGCCGGGCGACTATGCCGACCTAAACGCGGATAACGCCAAAGCCCATTTTAACGGACAGTTTGCGGGTCACAAAGCCTATGGGGACGCGGCGGCAGCTGATGGTGGCGGTTGCCATGGCCGCATCCTGGTAGGTCCGGCGGTTCGCGGGCGCCATTTGCATCGCGAAATACCCCTGGGCGAAGAATGTCAACGTGCGGCCCAGCCGCTGTTCAAAGAGGTATAA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGGTACCCCTGGACTGGTGAGGCTTGCTCAGGCTATGGATACCACCACAAAGAGGAGGGCTAATGACTAAATACAATGAGGCATATTGCGATGTTCTCATTGTCGGCGCGGGTCCGGCGGGCGTAATGGCCGCGGCGCATCTGCTGTCGTATGGCACAACGGCTCGTCCTCATCGCGTTCGAATTTTCGACGCAACGAAAGAAGTAAATGGAAGCGATGAAAGCACCGAATCGCTGTCGACTGACGTTATTGCTGATGCGCTGAATAGCGGTGCAAGCGGGCCTGAGAAAGATGCCGCTAGCACCACCGAGGATTTACCTATGTTGGTGACTACCCTGCAGGTGTCTGATGTTCTGCATGACACCGGCGATGATACAAAAATTGCCTATCGCGAGACGGCAACGGAACAGCAGGTACTTCTTCTAGCCGACACGACCGCCAATACCTCAAGTACGATGAATCCGCGCTCCATGTGCGAAGCTGGCTGTCGTTTTCATCAAATTTATCAGGGTCATTGCTTTCCGGAATATGAGTTAGACTCAGAACGCCTGCGCAGTGTTGATGGACGCGCGCAGGTTCTAGAGGATGAACATGAAACCGGCCAGCTGCGCCTCGAACGGTTAGGCCGTCCCGAGGAACTGCTGGAGCTGGATGAGGAAAATTCTATGTCGGTTGTTACGAATTTAAAAGCCGCGCCTTATAAGTTTCTCATGAAAGACGTGGATGAAAATTTTCCGGGGGAATTATCTACATCGGGCGGTAAGACCACCAGCATCAGCGCCGATGAGTCTGCGATAGATGCAGCCCTCCATGCAGTATGGGATGCGGATGATCTTGGCGCCGCATGGCACCTAGATGAGGCCTCTGGCCTCCGCGCAGTAGATTGGAACGCGGCGCAGTGGTTCAAGTCGGGCCAGCCGTGGACCCCAGACGCCGCCAAGTCACTGCAGGAAGGTAGGGTGTTTCTGGCCGGTGACGCGCGACATCGTCATCCGCCGTTGACCGGGATTGGTAAAAACACGAGCATCGCCGATTGCTACAATCTCACCTGGAAACTGCTGGGGGTTCTTCTGGGGGTGGCGCGTGCCGATCCTGCACGCACCTATGTTGCCGAACGAGTCTACATTCGCATGCGTGCGGCGACCGACATTGCGGTGGATGCCGAAATGGAAAGTCTTGCCGCCAAATGGATCACAGTACAGCTGACGTTGAGCCGCTCGTGGATCTCGTCAGCCAAAGAAGCTGAGCGCTGGGATGCGGTCTTGCGCGATAGCGCTATGAGCGCCAGCAAACCTATGTGGACGACGTCTGATATGCGTGCGAGCTTCGATGCTGGCCTGATGGGGCATGGACACGCCCATGATCATGTGACGCCGACCATCAAAGAATTTGCATCGAGCTCGATTTCAAGAAGCATTAGCGAACTCGCGAGCACCTCCTGGTGGGAAAGCCGCGGTTGGGGCAACGGCGGCCCGTTCGAAAGCCTTATGGAGGATGCGCGCTGGACCGGTGCGGTCGAAAGCAACTGTCGTTACGCGGCGTACGATCGCGATGCACCGGTTTTGCATGAACACGTGGCGTGGGTGACCCGTTTTACGTCGCGTGCCCGAACTGCTGTGTTGGAAGCGGCAGTAGGCCAGGCGCACGTAGTCGATTGCTGGGATGTGGGACTGGTTGAGCCTGCGCTGGACGATCTGGACTCAGCCGGTGCCGGGTTACATGTTGCCCATCATGCAGACCAGTGGCCTGCGCAACTAGATGAGGCCGTGTGGCCTCGTGAGAGTCTGAGCGATTGGCGTATTGTAACCGATACCAGTGCCACCGGGGAAGGCTATCAAACCAGCCCGCGCGAAGCGCCGGGCGACTATGCCGACCTAAACGCGGATAACGCCAAAGCCCATTTTAACGGACAGTTTGCGGGTCACAAAGCCTATGGGGACGCGGCGGCAGCTGATGGTGGCGGTTGCCATGGCCGCATCCTGGTAGGTCCGGCGGTTCGCGGGCGCCATTTGCATCGCGAAATACCCCTGGGCGAAGAATGTCAACGTGCGGCCCAGCCGCTGTTCAAAGAGGTATAAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>GTACCCCTGGACTGGTGAGGCTTGCTCAGGCTATGGATACCACCACAAAGAGGAGGGCTA</t>
+  </si>
+  <si>
+    <t>ATGCAACGCCCATGGGCTGAACCTTATAAAATTAAAGCTGTTGAACCGATTCGGATGACTACCAGGGAATACCGGGAGCAAGCGATCCGCGAAGCCGGCTATAACACTTTCCTCTTGCGCAGTGAAGATGTTTACATTGACCTGTTAACCGATTCTGGTACTAACGCAATGTCGGACCGCCAGTGGGGCGCGCTCATGATGGGCGATGAAGCCTACGCGGGCGCTCGTAGCTTCTTCCGTTTAGAGGAAGCTGTACGCGAGATTTATGGATTTAAGTATGTAGTGCCGACCCACCAAGGCCGCGGTGCCGAGCATCTAATTTCGCGAATTCTTATCAAGCCGGGAGATTATATTCCTGGCAACATGTATTTTACCACCACCCGCACGCACCAAGAATTACAGGGCGGCACATTCGTAGATGTTATTATTGACGAAGCGCACGATCCGCAAGCGTCCCACCCGTTTAAAGGGAATGTGGATATTGCCAAGTTCGAAGCCCTCATTGACCGCGTGGGCGCAGATAAGATTCCGTATATTAATGTGGCTCTGACCGTAAACATGGCGGGCGGGCAGCCGGTGTCGATGGCGAATTTACGTGAAGTCCGTAAAGTCTGCGATCGCCACGGAATCCGTATGTGGTCAGATGCAACTCGCGCTGTTGAGAATGCCTATTTCATCAAAGAACGTGAGGAGGGGTATCAGGACAAGCCGGTCCGCGAAATCCTGAAAGAGATGATGTCTTACTTTGATGGTTGCACCATGTCGGGAAAGAAAGACTGCCTCGTCAACATCGGCGGCTTTCTGGCGATGAACGAAGAATGGATTCTGCAAAAAGCGCGCGAACAGGTAGTGATCTTTGAAGGCATGCCGACATACGGCGGCCTCGCCGGTCGCGATATGGAAGCCATTGCTCAGGGCATCTACGAGATGGTTGACGATGATTATATAGCGCACCGCATTCACCAGGTGCGATATTTGGGTGAGCAGCTGCTGGAGGCCGGGATTCCAATCGTACAACCCATCGGTGGCCATGCCGTATTTCTGGATGCACGGGCATTCTTACCGCACATCCCGCAGGATCAATTTCCCGCACAAGCTTTGGCCGCAGCATTGTACGTGGATTCAGGTGTACGCGCGATGGAAAGAGGTATCGTATCTGCAGGCCGAAACCCTCAAACGGGTGAACATAACTACCCGAAGCTTGAACTGGTTCGCTTAACCATACCGCGCCGCGTTTACACTGACCGCCACATGGACGTCGTTGCGTACTCGGTCAAACATTTGTGGAAAGAACGTGATACTATTCGCGGCCTCCGTATGGTGTATGAACCGCCGACCTTACGGTTCTTCACCGCGCGTTTTGAACCGATTAGTTGA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGTGTAGGTTGTCATTCACCGCGAGATACTTAGATTTCGTGTATACGGAGGAGATGGCACAAATGCAACGCCCATGGGCTGAACCTTATAAAATTAAAGCTGTTGAACCGATTCGGATGACTACCAGGGAATACCGGGAGCAAGCGATCCGCGAAGCCGGCTATAACACTTTCCTCTTGCGCAGTGAAGATGTTTACATTGACCTGTTAACCGATTCTGGTACTAACGCAATGTCGGACCGCCAGTGGGGCGCGCTCATGATGGGCGATGAAGCCTACGCGGGCGCTCGTAGCTTCTTCCGTTTAGAGGAAGCTGTACGCGAGATTTATGGATTTAAGTATGTAGTGCCGACCCACCAAGGCCGCGGTGCCGAGCATCTAATTTCGCGAATTCTTATCAAGCCGGGAGATTATATTCCTGGCAACATGTATTTTACCACCACCCGCACGCACCAAGAATTACAGGGCGGCACATTCGTAGATGTTATTATTGACGAAGCGCACGATCCGCAAGCGTCCCACCCGTTTAAAGGGAATGTGGATATTGCCAAGTTCGAAGCCCTCATTGACCGCGTGGGCGCAGATAAGATTCCGTATATTAATGTGGCTCTGACCGTAAACATGGCGGGCGGGCAGCCGGTGTCGATGGCGAATTTACGTGAAGTCCGTAAAGTCTGCGATCGCCACGGAATCCGTATGTGGTCAGATGCAACTCGCGCTGTTGAGAATGCCTATTTCATCAAAGAACGTGAGGAGGGGTATCAGGACAAGCCGGTCCGCGAAATCCTGAAAGAGATGATGTCTTACTTTGATGGTTGCACCATGTCGGGAAAGAAAGACTGCCTCGTCAACATCGGCGGCTTTCTGGCGATGAACGAAGAATGGATTCTGCAAAAAGCGCGCGAACAGGTAGTGATCTTTGAAGGCATGCCGACATACGGCGGCCTCGCCGGTCGCGATATGGAAGCCATTGCTCAGGGCATCTACGAGATGGTTGACGATGATTATATAGCGCACCGCATTCACCAGGTGCGATATTTGGGTGAGCAGCTGCTGGAGGCCGGGATTCCAATCGTACAACCCATCGGTGGCCATGCCGTATTTCTGGATGCACGGGCATTCTTACCGCACATCCCGCAGGATCAATTTCCCGCACAAGCTTTGGCCGCAGCATTGTACGTGGATTCAGGTGTACGCGCGATGGAAAGAGGTATCGTATCTGCAGGCCGAAACCCTCAAACGGGTGAACATAACTACCCGAAGCTTGAACTGGTTCGCTTAACCATACCGCGCCGCGTTTACACTGACCGCCACATGGACGTCGTTGCGTACTCGGTCAAACATTTGTGGAAAGAACGTGATACTATTCGCGGCCTCCGTATGGTGTATGAACCGCCGACCTTACGGTTCTTCACCGCGCGTTTTGAACCGATTAGTTGATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>TGTAGGTTGTCATTCACCGCGAGATACTTAGATTTCGTGTATACGGAGGAGATGGCACAA</t>
+  </si>
+  <si>
+    <t>ATGCAGCGACCTTGGGCTGAACCATACAAAATCAAAGCTGTTGAACCAATTCGTATGACCACTCGCGAATATCGTGAACAAGCCATTCGCGAAGCAGGTTATAATACTTTCTTGCTGCGGTCAGAAGATGTATACATTGATCTGCTCACTGATTCTGGTACTAACGCAATGTCAGATCGCCAATGGGGCGCGCTGATGATGGGTGATGAAGCGTACGCCGGTGCTCGCTCATTTTTCCGTCTGGAGGAGGCGGTGCGCGAAATCTATGGCTTTAAATATGTCGTACCGACCCACCAGGGCCGCGGCGCCGAACATCTGATTAGCCGGATCTTAATCAAACCGGGTGATTATATTCCGGGCAACATGTATTTCACCACAACCCGTACACACCAGGAGTTACAAGGCGGCACTTTTGTGGATGTCATTATTGATGAAGCGCACGATCCGCAGGCGAGCCATCCGTTTAAAGGTAATGTGGATATTGCTAAATTTGAGGCTCTGATAGACCGCGTCGGGGCAGATAAAATTCCGTACATCAACGTGGCGCTCACGGTTAACATGGCAGGCGGCCAGCCGGTGTCTATGGCTAACTTACGTGAAGTGCGTAAAGTGTGTGATCGTCATGGGATTCGCATGTGGTCTGACGCAACGCGCGCCGTAGAAAACGCGTATTTCATTAAGGAACGCGAGGAAGGCTACCAGGACAAACCGGTGCGCGAGATCCTTAAGGAGATGATGAGCTATTTCGACGGCTGCACCATGTCCGGCAAAAAGGATTGTTTGGTCAACATTGGGGGCTTCCTGGCGATGAACGAAGAATGGATTCTTCAAAAGGCCAGAGAGCAGGTGGTCATCTTTGAAGGTATGCCTACCTACGGCGGGCTGGCCGGTCGGGATATGGAGGCCATTGCCCAAGGTATTTACGAAATGGTAGATGATGACTATATTGCCCATCGTATACACCAGGTGCGCTATTTAGGAGAACAGCTGTTGGAAGCGGGCATTCCTATCGTTCAACCGATCGGTGGCCATGCGGTTTTTCTGGATGCGCGCGCATTTCTGCCGCACATCCCTCAGGACCAGTTTCCAGCGCAGGCACTGGCAGCTGCTCTGTATGTTGATTCGGGAGTTCGTGCCATGGAACGTGGCATTGTATCTGCAGGACGCAATCCACAAACGGGCGAACACAATTATCCTAAATTAGAGCTGGTGCGTCTTACTATTCCTAGACGCGTCTACACCGACCGACATATGGATGTGGTCGCGTACAGCGTAAAGCATCTGTGGAAAGAACGCGATACCATACGCGGTCTGCGCATGGTGTACGAACCGCCGACCCTGCGTTTCTTTACAGCGCGCTTCGAACCGATCAGCTAA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGCTAACGACAACTACGCGGCATACTCCGACGATATGTCGAACGAGAGGGGGTCAAAGATTTATGCAGCGACCTTGGGCTGAACCATACAAAATCAAAGCTGTTGAACCAATTCGTATGACCACTCGCGAATATCGTGAACAAGCCATTCGCGAAGCAGGTTATAATACTTTCTTGCTGCGGTCAGAAGATGTATACATTGATCTGCTCACTGATTCTGGTACTAACGCAATGTCAGATCGCCAATGGGGCGCGCTGATGATGGGTGATGAAGCGTACGCCGGTGCTCGCTCATTTTTCCGTCTGGAGGAGGCGGTGCGCGAAATCTATGGCTTTAAATATGTCGTACCGACCCACCAGGGCCGCGGCGCCGAACATCTGATTAGCCGGATCTTAATCAAACCGGGTGATTATATTCCGGGCAACATGTATTTCACCACAACCCGTACACACCAGGAGTTACAAGGCGGCACTTTTGTGGATGTCATTATTGATGAAGCGCACGATCCGCAGGCGAGCCATCCGTTTAAAGGTAATGTGGATATTGCTAAATTTGAGGCTCTGATAGACCGCGTCGGGGCAGATAAAATTCCGTACATCAACGTGGCGCTCACGGTTAACATGGCAGGCGGCCAGCCGGTGTCTATGGCTAACTTACGTGAAGTGCGTAAAGTGTGTGATCGTCATGGGATTCGCATGTGGTCTGACGCAACGCGCGCCGTAGAAAACGCGTATTTCATTAAGGAACGCGAGGAAGGCTACCAGGACAAACCGGTGCGCGAGATCCTTAAGGAGATGATGAGCTATTTCGACGGCTGCACCATGTCCGGCAAAAAGGATTGTTTGGTCAACATTGGGGGCTTCCTGGCGATGAACGAAGAATGGATTCTTCAAAAGGCCAGAGAGCAGGTGGTCATCTTTGAAGGTATGCCTACCTACGGCGGGCTGGCCGGTCGGGATATGGAGGCCATTGCCCAAGGTATTTACGAAATGGTAGATGATGACTATATTGCCCATCGTATACACCAGGTGCGCTATTTAGGAGAACAGCTGTTGGAAGCGGGCATTCCTATCGTTCAACCGATCGGTGGCCATGCGGTTTTTCTGGATGCGCGCGCATTTCTGCCGCACATCCCTCAGGACCAGTTTCCAGCGCAGGCACTGGCAGCTGCTCTGTATGTTGATTCGGGAGTTCGTGCCATGGAACGTGGCATTGTATCTGCAGGACGCAATCCACAAACGGGCGAACACAATTATCCTAAATTAGAGCTGGTGCGTCTTACTATTCCTAGACGCGTCTACACCGACCGACATATGGATGTGGTCGCGTACAGCGTAAAGCATCTGTGGAAAGAACGCGATACCATACGCGGTCTGCGCATGGTGTACGAACCGCCGACCCTGCGTTTCTTTACAGCGCGCTTCGAACCGATCAGCTAATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>CTAACGACAACTACGCGGCATACTCCGACGATATGTCGAACGAGAGGGGGTCAAAGATTT</t>
+  </si>
+  <si>
+    <t>ATGCAACGCCCTTGGGCAGAGCCGTACAAGATTAAAGCGGTGGAACCGATTCGCATGACAACGCGTGAATACCGTGAGCAGGCTATCCGTGAAGCCGGTTACAACACTTTCCTACTACGCTCGGAGGATGTTTACATTGATCTCTTAACGGACTCAGGTACCAACGCGATGTCAGATCGACAGTGGGGCGCACTGATGATGGGGGACGAGGCTTATGCAGGCGCTCGTAGCTTTTTCCGCTTAGAAGAAGCGGTCCGCGAAATTTATGGCTTCAAATATGTGGTGCCCACCCACCAAGGTCGCGGTGCCGAACATTTAATTTCTCGCATTTTAATTAAGCCCGGGGATTACATCCCTGGTAATATGTATTTTACCACGACCCGAACTCATCAGGAACTGCAGGGCGGTACATTTGTTGATGTAATTATCGATGAAGCCCATGATCCTCAGGCCTCTCATCCGTTCAAGGGGAATGTTGATATAGCGAAATTTGAAGCCCTGATTGATCGCGTGGGGGCCGATAAAATCCCGTATATCAACGTGGCGCTGACCGTGAACATGGCCGGTGGCCAACCGGTGAGTATGGCCAACCTACGTGAAGTCCGCAAAGTATGTGATCGGCATGGGATTCGTATGTGGTCCGACGCGACCCGCGCGGTGGAAAACGCTTATTTTATCAAGGAGCGTGAAGAAGGCTATCAGGACAAACCAGTGCGCGAGATCCTGAAAGAGATGATGTCATACTTTGACGGATGCACGATGAGTGGTAAGAAAGACTGCCTCGTTAATATCGGCGGTTTCTTAGCGATGAACGAAGAATGGATTCTGCAGAAAGCCCGTGAGCAAGTTGTAATCTTTGAAGGTATGCCGACCTACGGCGGTCTGGCCGGTCGCGATATGGAGGCAATTGCCCAGGGCATTTATGAAATGGTGGATGATGATTATATCGCACACCGCATTCACCAGGTTCGGTATCTCGGCGAACAGCTCCTTGAAGCAGGCATCCCGATCGTACAACCTATAGGAGGACACGCCGTTTTCTTGGACGCGCGCGCGTTTCTGCCTCACATACCACAAGATCAGTTCCCTGCGCAAGCCCTGGCCGCGGCGCTGTACGTTGATAGCGGAGTGCGCGCGATGGAACGCGGTATCGTCAGCGCGGGCCGTAACCCTCAGACGGGTGAACACAATTATCCCAAGTTGGAACTAGTTCGCCTGACGATTCCGCGTCGGGTCTACACGGACCGCCACATGGACGTGGTGGCCTATAGCGTTAAACATCTGTGGAAAGAACGCGATACCATTCGCGGCCTGCGCATGGTCTATGAACCTCCGACCCTTCGCTTTTTCACCGCCCGCTTTGAACCGATTAGCTAA</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGGTTCGCCTAGAAGGTGCAGCAGGTGTAAAGAATCCATGTTTGATAATAAAGGAGGTAGTTGATGCAACGCCCTTGGGCAGAGCCGTACAAGATTAAAGCGGTGGAACCGATTCGCATGACAACGCGTGAATACCGTGAGCAGGCTATCCGTGAAGCCGGTTACAACACTTTCCTACTACGCTCGGAGGATGTTTACATTGATCTCTTAACGGACTCAGGTACCAACGCGATGTCAGATCGACAGTGGGGCGCACTGATGATGGGGGACGAGGCTTATGCAGGCGCTCGTAGCTTTTTCCGCTTAGAAGAAGCGGTCCGCGAAATTTATGGCTTCAAATATGTGGTGCCCACCCACCAAGGTCGCGGTGCCGAACATTTAATTTCTCGCATTTTAATTAAGCCCGGGGATTACATCCCTGGTAATATGTATTTTACCACGACCCGAACTCATCAGGAACTGCAGGGCGGTACATTTGTTGATGTAATTATCGATGAAGCCCATGATCCTCAGGCCTCTCATCCGTTCAAGGGGAATGTTGATATAGCGAAATTTGAAGCCCTGATTGATCGCGTGGGGGCCGATAAAATCCCGTATATCAACGTGGCGCTGACCGTGAACATGGCCGGTGGCCAACCGGTGAGTATGGCCAACCTACGTGAAGTCCGCAAAGTATGTGATCGGCATGGGATTCGTATGTGGTCCGACGCGACCCGCGCGGTGGAAAACGCTTATTTTATCAAGGAGCGTGAAGAAGGCTATCAGGACAAACCAGTGCGCGAGATCCTGAAAGAGATGATGTCATACTTTGACGGATGCACGATGAGTGGTAAGAAAGACTGCCTCGTTAATATCGGCGGTTTCTTAGCGATGAACGAAGAATGGATTCTGCAGAAAGCCCGTGAGCAAGTTGTAATCTTTGAAGGTATGCCGACCTACGGCGGTCTGGCCGGTCGCGATATGGAGGCAATTGCCCAGGGCATTTATGAAATGGTGGATGATGATTATATCGCACACCGCATTCACCAGGTTCGGTATCTCGGCGAACAGCTCCTTGAAGCAGGCATCCCGATCGTACAACCTATAGGAGGACACGCCGTTTTCTTGGACGCGCGCGCGTTTCTGCCTCACATACCACAAGATCAGTTCCCTGCGCAAGCCCTGGCCGCGGCGCTGTACGTTGATAGCGGAGTGCGCGCGATGGAACGCGGTATCGTCAGCGCGGGCCGTAACCCTCAGACGGGTGAACACAATTATCCCAAGTTGGAACTAGTTCGCCTGACGATTCCGCGTCGGGTCTACACGGACCGCCACATGGACGTGGTGGCCTATAGCGTTAAACATCTGTGGAAAGAACGCGATACCATTCGCGGCCTGCGCATGGTCTATGAACCTCCGACCCTTCGCTTTTTCACCGCCCGCTTTGAACCGATTAGCTAATGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>TTCGCCTAGAAGGTGCAGCAGGTGTAAAGAATCCATGTTTGATAATAAAGGAGGTAGTTG</t>
+  </si>
+  <si>
+    <t>ATGTCTTACCAAGTTACCATCGAACCTATTGGAACCACCATCGAAGTGGAGGAGGATCAAACCATACTGGACGCGGCGTTACGCCAGGGCGTATGGTTACCATTTGCGTGTGGACACGGTACGTGCGGAACATGTAAGGTTCAGGTCACCGACGGTTTCTACGATGTGGGCGAAGCGTCACCGTTCGCCCTCATGGACATTGAACGAGACGAAAACAAAGTGCTCGCTTGTTGCTGCAAGCCGCAGTCAGATATGGTAATTGAAGCGGACGTGGATGAAGATCCGGATTTCCTGGGCCATCTAGTACAGGATTACCAGGCTACCGTGATTGAGATCAAGGACTTATCTCCGACGATCAAAGGGATCAGGTTACAGCTGGATCGTCCTATTGAATTCCAGGCCGGACAATACATCAATGTGCAATTTCCGAACATCGAAGGCACCCGGGCGTTCAGCATTGCTAATAGCCCGAGTGAAGTGGGTATCGTTGAACTGCACATACGCAAGGTAGAGGGCGGCGCTGCGACTACGTATGTGCATGAACAACTTGCGACTGGTGATCAGCTAGATATCTCCGGTCCTTATGGCCAGTTCTTCGTGCGTAAAAGCGATGACCAGAACGCTATTTTTATTGCCGGTGGCTCAGGCCTGTCATCGCCGCAGAGCATGATACTGGATCTTCTGGAATCAGGCGATTCTCGCACCATTTATCTGTTCCAGGGTGCCCGCGACCTCGCGGAGCTTTATAACCGCGAGTTATTTGAGCAGCTGGTTAAAGATTACCCGAACTTTCGTTACATCCCGGCACTGAACGCCCCGAAACCTGAGGATCAGTGGACCGGATTTACAGGGTTCGTTCATGAAGCGGTCGCGGACTATTTTGAAAACCGGTGCGGCGGCCATAAAGCCTATCTGTGCGGCCCGCCGATTATGATCGACAGCGCAATTAGTACCCTCATGCAAAGTCGTCTCTTTGAACGCGATATTCATACCGAAAGATTCCTGAGTGCGGCTGACGGTGCAGCTGGTCAAAGCCGCTCCGCACTGTTTAAACACATATAA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGCACCTAATCACACCATCCTCGCTGTTACAGTAAGGAGATCATTCTGTCCGGAGGTCAATAATGTCTTACCAAGTTACCATCGAACCTATTGGAACCACCATCGAAGTGGAGGAGGATCAAACCATACTGGACGCGGCGTTACGCCAGGGCGTATGGTTACCATTTGCGTGTGGACACGGTACGTGCGGAACATGTAAGGTTCAGGTCACCGACGGTTTCTACGATGTGGGCGAAGCGTCACCGTTCGCCCTCATGGACATTGAACGAGACGAAAACAAAGTGCTCGCTTGTTGCTGCAAGCCGCAGTCAGATATGGTAATTGAAGCGGACGTGGATGAAGATCCGGATTTCCTGGGCCATCTAGTACAGGATTACCAGGCTACCGTGATTGAGATCAAGGACTTATCTCCGACGATCAAAGGGATCAGGTTACAGCTGGATCGTCCTATTGAATTCCAGGCCGGACAATACATCAATGTGCAATTTCCGAACATCGAAGGCACCCGGGCGTTCAGCATTGCTAATAGCCCGAGTGAAGTGGGTATCGTTGAACTGCACATACGCAAGGTAGAGGGCGGCGCTGCGACTACGTATGTGCATGAACAACTTGCGACTGGTGATCAGCTAGATATCTCCGGTCCTTATGGCCAGTTCTTCGTGCGTAAAAGCGATGACCAGAACGCTATTTTTATTGCCGGTGGCTCAGGCCTGTCATCGCCGCAGAGCATGATACTGGATCTTCTGGAATCAGGCGATTCTCGCACCATTTATCTGTTCCAGGGTGCCCGCGACCTCGCGGAGCTTTATAACCGCGAGTTATTTGAGCAGCTGGTTAAAGATTACCCGAACTTTCGTTACATCCCGGCACTGAACGCCCCGAAACCTGAGGATCAGTGGACCGGATTTACAGGGTTCGTTCATGAAGCGGTCGCGGACTATTTTGAAAACCGGTGCGGCGGCCATAAAGCCTATCTGTGCGGCCCGCCGATTATGATCGACAGCGCAATTAGTACCCTCATGCAAAGTCGTCTCTTTGAACGCGATATTCATACCGAAAGATTCCTGAGTGCGGCTGACGGTGCAGCTGGTCAAAGCCGCTCCGCACTGTTTAAACACATATAAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>CACCTAATCACACCATCCTCGCTGTTACAGTAAGGAGATCATTCTGTCCGGAGGTCAATA</t>
+  </si>
+  <si>
+    <t>ATGAGCTACCAAGTAACTATAGAACCGATCGGAACGACTATTGAAGTCGAAGAAGATCAGACTATCCTGGATGCCGCGCTTCGCCAAGGCGTTTGGCTACCTTTCGCATGCGGTCATGGCACTTGTGGTACTTGTAAGGTCCAGGTTACCGACGGTTTTTATGATGTAGGCGAGGCGAGCCCCTTCGCGTTAATGGATATTGAACGCGACGAGAATAAAGTGCTTGCATGCTGCTGCAAACCCCAAAGTGATATGGTTATCGAAGCCGACGTCGATGAGGATCCTGATTTCCTCGGTCATCTGGTGCAGGATTATCAAGCCACCGTCATTGAGATTAAAGATCTGTCACCGACGATTAAAGGCATTCGCTTGCAGCTGGATCGCCCGATCGAATTCCAGGCAGGCCAATACATCAACGTGCAGTTCCCTAATATTGAAGGCACGCGTGCATTCAGCATTGCCAACAGCCCGTCAGAAGTTGGTATTGTCGAACTGCATATCCGTAAAGTTGAAGGGGGCGCGGCGACCACCTATGTGCATGAGCAATTGGCCACAGGTGATCAGCTAGACATTAGTGGTCCTTATGGTCAGTTCTTTGTACGTAAGTCCGATGATCAAAATGCCATTTTTATCGCTGGTGGTAGCGGTTTATCATCACCACAGTCTATGATCCTGGATTTACTGGAAAGCGGGGATAGCCGTACCATTTATTTGTTTCAGGGCGCGCGTGATCTGGCGGAACTCTATAATCGCGAGCTGTTTGAGCAGCTGGTGAAGGACTACCCGAATTTTCGTTATATCCCGGCACTCAATGCGCCGAAACCGGAAGATCAGTGGACCGGTTTCACGGGTTTCGTGCATGAAGCAGTGGCGGATTACTTCGAGAATCGGTGCGGTGGCCACAAAGCATATTTATGCGGTCCGCCCATTATGATAGATTCTGCGATATCTACACTGATGCAGTCACGCCTGTTCGAACGCGACATTCATACCGAACGTTTTCTGTCAGCGGCGGACGGCGCGGCGGGTCAGTCTCGCTCTGCCCTCTTCAAACACATCTAA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGGTATCAAGCTACCAAGACGCAGGGTGCAGCTAACTACTTCAATTAGGGAACGGAGGACGAATGAGCTACCAAGTAACTATAGAACCGATCGGAACGACTATTGAAGTCGAAGAAGATCAGACTATCCTGGATGCCGCGCTTCGCCAAGGCGTTTGGCTACCTTTCGCATGCGGTCATGGCACTTGTGGTACTTGTAAGGTCCAGGTTACCGACGGTTTTTATGATGTAGGCGAGGCGAGCCCCTTCGCGTTAATGGATATTGAACGCGACGAGAATAAAGTGCTTGCATGCTGCTGCAAACCCCAAAGTGATATGGTTATCGAAGCCGACGTCGATGAGGATCCTGATTTCCTCGGTCATCTGGTGCAGGATTATCAAGCCACCGTCATTGAGATTAAAGATCTGTCACCGACGATTAAAGGCATTCGCTTGCAGCTGGATCGCCCGATCGAATTCCAGGCAGGCCAATACATCAACGTGCAGTTCCCTAATATTGAAGGCACGCGTGCATTCAGCATTGCCAACAGCCCGTCAGAAGTTGGTATTGTCGAACTGCATATCCGTAAAGTTGAAGGGGGCGCGGCGACCACCTATGTGCATGAGCAATTGGCCACAGGTGATCAGCTAGACATTAGTGGTCCTTATGGTCAGTTCTTTGTACGTAAGTCCGATGATCAAAATGCCATTTTTATCGCTGGTGGTAGCGGTTTATCATCACCACAGTCTATGATCCTGGATTTACTGGAAAGCGGGGATAGCCGTACCATTTATTTGTTTCAGGGCGCGCGTGATCTGGCGGAACTCTATAATCGCGAGCTGTTTGAGCAGCTGGTGAAGGACTACCCGAATTTTCGTTATATCCCGGCACTCAATGCGCCGAAACCGGAAGATCAGTGGACCGGTTTCACGGGTTTCGTGCATGAAGCAGTGGCGGATTACTTCGAGAATCGGTGCGGTGGCCACAAAGCATATTTATGCGGTCCGCCCATTATGATAGATTCTGCGATATCTACACTGATGCAGTCACGCCTGTTCGAACGCGACATTCATACCGAACGTTTTCTGTCAGCGGCGGACGGCGCGGCGGGTCAGTCTCGCTCTGCCCTCTTCAAACACATCTAAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>GTATCAAGCTACCAAGACGCAGGGTGCAGCTAACTACTTCAATTAGGGAACGGAGGACGA</t>
+  </si>
+  <si>
+    <t>ATGTCGTATCAAGTGACGATTGAACCAATTGGCACCACAATCGAAGTGGAAGAAGATCAGACCATCTTAGACGCCGCCTTGCGCCAGGGCGTGTGGCTGCCGTTCGCGTGCGGTCATGGCACTTGTGGCACCTGCAAAGTTCAAGTAACCGATGGCTTTTACGACGTTGGTGAAGCCAGTCCGTTCGCGCTTATGGATATCGAACGTGACGAAAACAAAGTATTGGCCTGTTGTTGCAAACCGCAGAGCGATATGGTAATTGAAGCCGACGTGGACGAAGACCCAGATTTCTTGGGCCATCTGGTTCAGGATTACCAGGCGACCGTCATCGAGATTAAGGACCTGTCTCCGACCATCAAAGGAATTCGCCTGCAGCTAGATCGTCCAATCGAATTTCAAGCAGGCCAGTATATAAACGTCCAGTTCCCCAACATCGAAGGAACCCGCGCCTTTAGTATTGCGAATAGTCCGAGCGAAGTAGGTATCGTGGAACTGCACATTCGCAAAGTTGAAGGTGGAGCCGCGACGACTTATGTACACGAGCAGCTGGCCACCGGCGACCAACTAGATATAAGCGGCCCGTACGGACAGTTCTTTGTCCGCAAATCTGATGATCAGAACGCCATCTTTATTGCCGGCGGATCAGGCCTGAGCTCACCGCAGAGCATGATTCTAGACCTTCTGGAGTCTGGTGATTCGAGGACCATCTACCTGTTTCAGGGCGCACGTGACCTGGCCGAGCTGTATAATCGCGAATTATTCGAACAACTGGTGAAAGATTATCCAAACTTCCGATATATCCCGGCGCTGAATGCGCCGAAACCAGAGGATCAGTGGACAGGTTTTACTGGCTTCGTCCATGAAGCGGTGGCGGATTACTTCGAGAACCGTTGCGGCGGTCATAAAGCGTATCTGTGCGGGCCTCCCATTATGATTGATAGTGCAATCTCAACGTTAATGCAATCCCGCCTGTTTGAACGCGACATTCATACTGAGCGTTTTCTTTCCGCTGCGGACGGCGCTGCGGGACAAAGCCGTAGCGCACTGTTTAAGCATATTTAA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGACCGATCAAACATGATAAAGCAGACGCTGGACCTCCCCCGGTGTCTTAGAGGAGGATAATATGTCGTATCAAGTGACGATTGAACCAATTGGCACCACAATCGAAGTGGAAGAAGATCAGACCATCTTAGACGCCGCCTTGCGCCAGGGCGTGTGGCTGCCGTTCGCGTGCGGTCATGGCACTTGTGGCACCTGCAAAGTTCAAGTAACCGATGGCTTTTACGACGTTGGTGAAGCCAGTCCGTTCGCGCTTATGGATATCGAACGTGACGAAAACAAAGTATTGGCCTGTTGTTGCAAACCGCAGAGCGATATGGTAATTGAAGCCGACGTGGACGAAGACCCAGATTTCTTGGGCCATCTGGTTCAGGATTACCAGGCGACCGTCATCGAGATTAAGGACCTGTCTCCGACCATCAAAGGAATTCGCCTGCAGCTAGATCGTCCAATCGAATTTCAAGCAGGCCAGTATATAAACGTCCAGTTCCCCAACATCGAAGGAACCCGCGCCTTTAGTATTGCGAATAGTCCGAGCGAAGTAGGTATCGTGGAACTGCACATTCGCAAAGTTGAAGGTGGAGCCGCGACGACTTATGTACACGAGCAGCTGGCCACCGGCGACCAACTAGATATAAGCGGCCCGTACGGACAGTTCTTTGTCCGCAAATCTGATGATCAGAACGCCATCTTTATTGCCGGCGGATCAGGCCTGAGCTCACCGCAGAGCATGATTCTAGACCTTCTGGAGTCTGGTGATTCGAGGACCATCTACCTGTTTCAGGGCGCACGTGACCTGGCCGAGCTGTATAATCGCGAATTATTCGAACAACTGGTGAAAGATTATCCAAACTTCCGATATATCCCGGCGCTGAATGCGCCGAAACCAGAGGATCAGTGGACAGGTTTTACTGGCTTCGTCCATGAAGCGGTGGCGGATTACTTCGAGAACCGTTGCGGCGGTCATAAAGCGTATCTGTGCGGGCCTCCCATTATGATTGATAGTGCAATCTCAACGTTAATGCAATCCCGCCTGTTTGAACGCGACATTCATACTGAGCGTTTTCTTTCCGCTGCGGACGGCGCTGCGGGACAAAGCCGTAGCGCACTGTTTAAGCATATTTAAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>ACCGATCAAACATGATAAAGCAGACGCTGGACCTCCCCCGGTGTCTTAGAGGAGGATAAT</t>
+  </si>
+  <si>
+    <t>ATGACGCTTGAAATTAAAACGAGCAACGTTGAGCCGATCCGCCAAAATTACGCCTATATTGAACGCCGTTTTGGATCAAAGCCTGCGACGCGCTACCAGGAAGTGTCCTTCGACGTACAGGCCGAGACTAACTTTCACTACCGCCCGCTCTGGAAGCCGGAAAAGACCTTGAACGACAAAACCCATACAGCGCTGCAAATGCAGGATTGGTACGCCTTCAAAGATCCCCGACAGTTCTATTATGGCACATACGTACAGCATCGCGCCCGTCTGCAAGATACCGCCGAGAGCAATTTCGCCTTTTTCGAAAAACGTCAACTTGCGGAACATCTAAGCAACGAGGTAAAAGCGAAAGTGATAGAATGCCTGCTGCCGTTCCGTCATGTGGAACAGACCGCGAATTTACATATGATGTCGGGCTCGGCCTATGGTTACGGTACTGTATTAACGCAAGCGTGTATCTATGCTGCGATGGATCATTTGGGCATTGCCCAATACATTTCGCGTATCGGCCTGGCGTTAGATGGTAACAGCGGAGATAGCCTGCAACAGGCAAAGCAGGCGTGGATGCAGCATCCCGCATGGCAAGGCCTGCGCCGTCTGTGCGAAGAATCACTGACGGAGCAAGATTATTTTAAACTGTTCTTGCTGCAAAACCTGGTGATTGATGGGTTTGTAACCGAACTGGTCTACCAACAATTTGATCAGTGGCTCGTTAGCCAGAATGCGCGCGATTTAGCGATGTTAACTGAGTTTATGAAAGATACCCTAGGTGATCTGCGCAAATGGAGTGACACGGTAATTAAAACAGCAGCCGCGGAAAGCGATCATAATAAACAGCTTCTGAACGAATGGTTCACGGAGTCCTTAGCGCAAGTTAAAGCCGCTTTTACGCCATGGGCCACGGCGGCCCTGACCGTCGATGCCGTTGACCAGGCCGAACAGGCCGTGATCGAACGAGCGAAGAAACTGGGCCTTCAACCGTTGACAAACGCCTGA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGCAGAGTACCCGAATTCCTCCCGATGATGATGTAAAATAACAGTCAATATGGAGGTCGCGCATGACGCTTGAAATTAAAACGAGCAACGTTGAGCCGATCCGCCAAAATTACGCCTATATTGAACGCCGTTTTGGATCAAAGCCTGCGACGCGCTACCAGGAAGTGTCCTTCGACGTACAGGCCGAGACTAACTTTCACTACCGCCCGCTCTGGAAGCCGGAAAAGACCTTGAACGACAAAACCCATACAGCGCTGCAAATGCAGGATTGGTACGCCTTCAAAGATCCCCGACAGTTCTATTATGGCACATACGTACAGCATCGCGCCCGTCTGCAAGATACCGCCGAGAGCAATTTCGCCTTTTTCGAAAAACGTCAACTTGCGGAACATCTAAGCAACGAGGTAAAAGCGAAAGTGATAGAATGCCTGCTGCCGTTCCGTCATGTGGAACAGACCGCGAATTTACATATGATGTCGGGCTCGGCCTATGGTTACGGTACTGTATTAACGCAAGCGTGTATCTATGCTGCGATGGATCATTTGGGCATTGCCCAATACATTTCGCGTATCGGCCTGGCGTTAGATGGTAACAGCGGAGATAGCCTGCAACAGGCAAAGCAGGCGTGGATGCAGCATCCCGCATGGCAAGGCCTGCGCCGTCTGTGCGAAGAATCACTGACGGAGCAAGATTATTTTAAACTGTTCTTGCTGCAAAACCTGGTGATTGATGGGTTTGTAACCGAACTGGTCTACCAACAATTTGATCAGTGGCTCGTTAGCCAGAATGCGCGCGATTTAGCGATGTTAACTGAGTTTATGAAAGATACCCTAGGTGATCTGCGCAAATGGAGTGACACGGTAATTAAAACAGCAGCCGCGGAAAGCGATCATAATAAACAGCTTCTGAACGAATGGTTCACGGAGTCCTTAGCGCAAGTTAAAGCCGCTTTTACGCCATGGGCCACGGCGGCCCTGACCGTCGATGCCGTTGACCAGGCCGAACAGGCCGTGATCGAACGAGCGAAGAAACTGGGCCTTCAACCGTTGACAAACGCCTGAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>CAGAGTACCCGAATTCCTCCCGATGATGATGTAAAATAACAGTCAATATGGAGGTCGCGC</t>
+  </si>
+  <si>
+    <t>ATGACATTGGAAATTAAAACCTCAAATGTGGAACCGATTCGACAAAACTATGCGTATATCGAGCGCCGATTTGGAAGCAAACCGGCGACGAGATATCAGGAAGTGTCTTTCGATGTACAAGCTGAAACAAATTTTCATTATCGCCCGTTATGGAAACCGGAGAAAACCCTGAACGATAAGACTCATACCGCACTGCAAATGCAAGACTGGTACGCGTTCAAAGATCCGCGCCAGTTTTATTATGGCACCTACGTTCAGCACCGTGCCCGCCTGCAGGATACGGCAGAAAGCAATTTTGCGTTTTTCGAGAAACGCCAACTCGCGGAGCACTTGTCAAACGAAGTTAAAGCAAAAGTGATCGAGTGCTTGCTCCCCTTTCGTCACGTGGAGCAGACGGCGAATCTGCATATGATGTCTGGCAGCGCGTATGGATATGGTACTGTGCTTACGCAAGCCTGTATTTATGCCGCCATGGACCACCTGGGCATTGCCCAGTATATCAGTCGTATTGGTCTCGCATTAGACGGAAACTCGGGCGATTCCCTGCAGCAAGCGAAACAGGCCTGGATGCAACATCCGGCATGGCAGGGCCTTCGGCGACTTTGTGAGGAAAGTTTGACTGAACAGGATTATTTTAAACTCTTCTTGCTCCAAAACCTGGTGATTGACGGCTTCGTGACCGAACTGGTCTATCAGCAGTTCGACCAGTGGCTGGTGAGTCAAAATGCTCGCGATTTGGCGATGCTGACAGAATTTATGAAGGATACGCTGGGCGACCTTCGTAAATGGAGCGATACGGTGATCAAAACCGCGGCGGCGGAAAGCGATCACAATAAACAGCTGCTCAACGAATGGTTCACTGAAAGTCTGGCGCAGGTAAAGGCAGCGTTTACACCGTGGGCAACGGCGGCCCTGACCGTTGATGCCGTTGATCAGGCCGAGCAAGCCGTTATTGAACGTGCCAAAAAGTTAGGTCTGCAGCCGCTGACCAATGCCTAA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGAGCAGGGAGTGGTCCCACAACCGCCGGCGGGACCCAAAACGTCTGATAAGGGCAGGGCGAATGACATTGGAAATTAAAACCTCAAATGTGGAACCGATTCGACAAAACTATGCGTATATCGAGCGCCGATTTGGAAGCAAACCGGCGACGAGATATCAGGAAGTGTCTTTCGATGTACAAGCTGAAACAAATTTTCATTATCGCCCGTTATGGAAACCGGAGAAAACCCTGAACGATAAGACTCATACCGCACTGCAAATGCAAGACTGGTACGCGTTCAAAGATCCGCGCCAGTTTTATTATGGCACCTACGTTCAGCACCGTGCCCGCCTGCAGGATACGGCAGAAAGCAATTTTGCGTTTTTCGAGAAACGCCAACTCGCGGAGCACTTGTCAAACGAAGTTAAAGCAAAAGTGATCGAGTGCTTGCTCCCCTTTCGTCACGTGGAGCAGACGGCGAATCTGCATATGATGTCTGGCAGCGCGTATGGATATGGTACTGTGCTTACGCAAGCCTGTATTTATGCCGCCATGGACCACCTGGGCATTGCCCAGTATATCAGTCGTATTGGTCTCGCATTAGACGGAAACTCGGGCGATTCCCTGCAGCAAGCGAAACAGGCCTGGATGCAACATCCGGCATGGCAGGGCCTTCGGCGACTTTGTGAGGAAAGTTTGACTGAACAGGATTATTTTAAACTCTTCTTGCTCCAAAACCTGGTGATTGACGGCTTCGTGACCGAACTGGTCTATCAGCAGTTCGACCAGTGGCTGGTGAGTCAAAATGCTCGCGATTTGGCGATGCTGACAGAATTTATGAAGGATACGCTGGGCGACCTTCGTAAATGGAGCGATACGGTGATCAAAACCGCGGCGGCGGAAAGCGATCACAATAAACAGCTGCTCAACGAATGGTTCACTGAAAGTCTGGCGCAGGTAAAGGCAGCGTTTACACCGTGGGCAACGGCGGCCCTGACCGTTGATGCCGTTGATCAGGCCGAGCAAGCCGTTATTGAACGTGCCAAAAAGTTAGGTCTGCAGCCGCTGACCAATGCCTAAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>AGCAGGGAGTGGTCCCACAACCGCCGGCGGGACCCAAAACGTCTGATAAGGGCAGGGCGA</t>
+  </si>
+  <si>
+    <t>ATGACACTTGAAATTAAAACGTCTAACGTGGAACCCATTCGCCAAAATTACGCGTACATTGAACGCCGTTTTGGCTCTAAACCGGCGACCCGATACCAGGAAGTTTCATTTGATGTGCAGGCGGAGACCAACTTCCACTACCGCCCTCTCTGGAAACCGGAGAAAACCCTGAACGACAAAACGCACACGGCCCTGCAGATGCAAGACTGGTACGCGTTTAAGGATCCGCGTCAGTTTTATTATGGCACGTATGTCCAACACCGTGCCCGTCTGCAGGACACCGCGGAATCTAATTTTGCGTTCTTCGAAAAACGGCAGCTCGCAGAGCACTTATCCAATGAAGTGAAAGCGAAAGTTATTGAATGTTTATTACCATTCCGCCACGTCGAGCAGACCGCCAACCTCCACATGATGAGTGGCTCGGCCTACGGCTATGGTACCGTTCTTACCCAGGCCTGCATCTACGCCGCGATGGATCACCTGGGTATCGCACAGTATATTTCACGTATTGGTCTGGCGTTGGATGGTAATTCGGGAGATAGCCTGCAACAGGCAAAACAAGCGTGGATGCAACATCCTGCTTGGCAGGGCCTTCGACGCCTTTGTGAAGAGAGCTTGACCGAACAGGATTACTTCAAACTGTTCTTGCTTCAGAATTTGGTGATCGACGGCTTTGTGACTGAGTTAGTCTATCAGCAGTTTGATCAATGGTTAGTCAGTCAGAATGCACGCGATCTGGCAATGCTTACTGAATTCATGAAAGATACTTTGGGGGATTTGCGTAAATGGAGCGACACGGTTATCAAGACCGCGGCGGCCGAGTCTGATCATAATAAACAGCTGCTGAACGAATGGTTCACGGAGTCGCTTGCCCAGGTGAAAGCAGCGTTCACGCCGTGGGCAACGGCCGCGCTCACCGTGGACGCTGTAGATCAGGCAGAACAGGCGGTGATCGAACGCGCGAAGAAACTGGGCCTCCAACCTCTGACGAACGCCTGA</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCGCGTAGGACATCATGCGCACACGCCGTCCAACGGAGTAGCTAAGAAGGAGGAAGCTAGATTATGACACTTGAAATTAAAACGTCTAACGTGGAACCCATTCGCCAAAATTACGCGTACATTGAACGCCGTTTTGGCTCTAAACCGGCGACCCGATACCAGGAAGTTTCATTTGATGTGCAGGCGGAGACCAACTTCCACTACCGCCCTCTCTGGAAACCGGAGAAAACCCTGAACGACAAAACGCACACGGCCCTGCAGATGCAAGACTGGTACGCGTTTAAGGATCCGCGTCAGTTTTATTATGGCACGTATGTCCAACACCGTGCCCGTCTGCAGGACACCGCGGAATCTAATTTTGCGTTCTTCGAAAAACGGCAGCTCGCAGAGCACTTATCCAATGAAGTGAAAGCGAAAGTTATTGAATGTTTATTACCATTCCGCCACGTCGAGCAGACCGCCAACCTCCACATGATGAGTGGCTCGGCCTACGGCTATGGTACCGTTCTTACCCAGGCCTGCATCTACGCCGCGATGGATCACCTGGGTATCGCACAGTATATTTCACGTATTGGTCTGGCGTTGGATGGTAATTCGGGAGATAGCCTGCAACAGGCAAAACAAGCGTGGATGCAACATCCTGCTTGGCAGGGCCTTCGACGCCTTTGTGAAGAGAGCTTGACCGAACAGGATTACTTCAAACTGTTCTTGCTTCAGAATTTGGTGATCGACGGCTTTGTGACTGAGTTAGTCTATCAGCAGTTTGATCAATGGTTAGTCAGTCAGAATGCACGCGATCTGGCAATGCTTACTGAATTCATGAAAGATACTTTGGGGGATTTGCGTAAATGGAGCGACACGGTTATCAAGACCGCGGCGGCCGAGTCTGATCATAATAAACAGCTGCTGAACGAATGGTTCACGGAGTCGCTTGCCCAGGTGAAAGCAGCGTTCACGCCGTGGGCAACGGCCGCGCTCACCGTGGACGCTGTAGATCAGGCAGAACAGGCGGTGATCGAACGCGCGAAGAAACTGGGCCTCCAACCTCTGACGAACGCCTGAGTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>CGTAGGACATCATGCGCACACGCCGTCCAACGGAGTAGCTAAGAAGGAGGAAGCTAGATT</t>
+  </si>
+  <si>
+    <t>ACTGTTTCCCGGCACCGCT</t>
+  </si>
+  <si>
+    <t>TAATGCAGATCATTGTTAAGTACGGTCGCGT</t>
+  </si>
+  <si>
+    <t>GTAAACAGCGCTGCTAAGCTTACCAGG</t>
+  </si>
+  <si>
+    <t>TAAAATAATCTCAACTCTCGTACATCTGATACTGTCGTTCG</t>
+  </si>
+  <si>
+    <t>TGACAGCACCGAGATAGACCCTGC</t>
+  </si>
+  <si>
+    <t>GATAGCGAGAGTGCTCACTCCCGG</t>
   </si>
   <si>
     <t>method</t>
@@ -896,148 +1184,166 @@
     <t>lcr</t>
   </si>
   <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + Q0VZ68 + Q57160 + Ter + Ter + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4 + oligo_5 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + P85913 + Ter + Ter + oligo_8 + oligo_0 + oligo_1 + oligo_2 + oligo_9 + oligo_10 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + Q57160 + Ter + oligo_8 + oligo_12 + oligo_13 + oligo_14 + oligo_5 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_J56012 + O82035 + Q0VZ68 + Ter + Ter + oligo_15 + oligo_16 + oligo_17 + oligo_18 + oligo_19 + oligo_20 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + P33751 + Ter + Ter + oligo_8 + oligo_15 + oligo_16 + oligo_2 + oligo_21 + oligo_22 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + P33751 + Q1LRV9 + Ter + oligo_12 + oligo_13 + oligo_21 + oligo_23 + oligo_24 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_K1847014 + P33751 + Q3IWB0 + Ter + oligo_15 + oligo_25 + oligo_21 + oligo_26 + oligo_27 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + P85916 + Q3IWB0 + Ter + Ter + oligo_28 + oligo_17 + oligo_29 + oligo_30 + oligo_31 + oligo_27 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + BBa_K1847014 + P33751 + Ter + Ter + oligo_8 + oligo_0 + oligo_32 + oligo_33 + oligo_21 + oligo_22 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + P33751 + Q0VZ68 + Ter + Ter + oligo_28 + oligo_17 + oligo_29 + oligo_34 + oligo_35 + oligo_20 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + Q08350 + Q0VZ68 + Ter + oligo_12 + oligo_13 + oligo_9 + oligo_36 + oligo_20 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + Q08350 + Q3IWB0 + Ter + Ter + oligo_0 + oligo_1 + oligo_2 + oligo_9 + oligo_31 + oligo_27 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + Q0VZ68 + Q57160 + Ter + Ter + oligo_15 + oligo_16 + oligo_2 + oligo_3 + oligo_4 + oligo_5 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + P33751 + Q3IWB0 + Ter + oligo_0 + oligo_1 + oligo_37 + oligo_26 + oligo_27 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + P85913 + Q3IWB0 + Ter + Ter + oligo_0 + oligo_1 + oligo_2 + oligo_9 + oligo_31 + oligo_27 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + P85913 + Q0VZ68 + Ter + oligo_0 + oligo_1 + oligo_18 + oligo_36 + oligo_20 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + Q08350 + Ter + Ter + oligo_8 + oligo_28 + oligo_17 + oligo_29 + oligo_38 + oligo_10 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_K1847014 + P33751 + Ter + Ter + oligo_8 + oligo_0 + oligo_1 + oligo_2 + oligo_21 + oligo_22 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + Q08350 + Ter + Ter + oligo_8 + oligo_15 + oligo_16 + oligo_2 + oligo_9 + oligo_10 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + P85913 + Q1LRV9 + Ter + oligo_15 + oligo_16 + oligo_18 + oligo_39 + oligo_24 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + BBa_K1847014 + P85916 + Ter + Ter + oligo_8 + oligo_0 + oligo_32 + oligo_33 + oligo_40 + oligo_10 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P85913 + Ter + oligo_8 + oligo_28 + oligo_29 + oligo_38 + oligo_10 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50032 + BBa_J56012 + Q57160 + Ter + oligo_8 + oligo_15 + oligo_16 + oligo_41 + oligo_5 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P85916 + Ter + oligo_8 + oligo_15 + oligo_25 + oligo_40 + oligo_10 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + BBa_K1847014 + O82035 + Q1LRV9 + Ter + Ter + oligo_12 + oligo_13 + oligo_33 + oligo_9 + oligo_42 + oligo_24 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + Q3IWB0 + Q57160 + Ter + oligo_0 + oligo_1 + oligo_43 + oligo_44 + oligo_5 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P33751 + Ter + oligo_8 + oligo_28 + oligo_29 + oligo_34 + oligo_22 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P85916 + Ter + oligo_8 + oligo_0 + oligo_1 + oligo_45 + oligo_10 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + P85916 + Q0VZ68 + Ter + oligo_15 + oligo_16 + oligo_45 + oligo_36 + oligo_20 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_J56012 + BBa_J56012 + BBa_J64101 + O82035 + Ter + Ter + oligo_8 + oligo_28 + oligo_17 + oligo_29 + oligo_38 + oligo_46 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + Q08350 + Q3IWB0 + Ter + oligo_15 + oligo_16 + oligo_18 + oligo_31 + oligo_27 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_K1847014 + Q08350 + Q1LRV9 + Ter + oligo_0 + oligo_32 + oligo_9 + oligo_39 + oligo_24 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_K1847014 + Q1LRV9 + Q57160 + Ter + oligo_15 + oligo_25 + oligo_47 + oligo_48 + oligo_5 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P85913 + Ter + oligo_8 + oligo_12 + oligo_13 + oligo_9 + oligo_10 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_K1847014 + O82035 + Q0VZ68 + Ter + oligo_0 + oligo_32 + oligo_9 + oligo_19 + oligo_20 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_K1847014 + BBa_K1847014 + P85913 + Q0VZ68 + Ter + Ter + oligo_15 + oligo_25 + oligo_33 + oligo_9 + oligo_36 + oligo_20 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + O82035 + Q1LRV9 + Ter + oligo_0 + oligo_1 + oligo_18 + oligo_42 + oligo_24 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + O82035 + Q3IWB0 + Ter + oligo_12 + oligo_13 + oligo_9 + oligo_49 + oligo_27 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV93 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + BBa_K1847014 + O82035 + Ter + Ter + oligo_8 + oligo_15 + oligo_25 + oligo_33 + oligo_9 + oligo_46 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + P85916 + Q0VZ68 + Ter + oligo_12 + oligo_13 + oligo_40 + oligo_36 + oligo_20 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + P85913 + Q3IWB0 + Ter + Ter + oligo_15 + oligo_16 + oligo_2 + oligo_9 + oligo_31 + oligo_27 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50032 + BBa_J56012 + BBa_K1847014 + P85916 + Q1LRV9 + Ter + Ter + oligo_15 + oligo_16 + oligo_2 + oligo_40 + oligo_39 + oligo_24 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J64101 + BBa_K1847014 + BBa_K1847014 + Q3IWB0 + Q57160 + Ter + Ter + oligo_12 + oligo_13 + oligo_33 + oligo_50 + oligo_44 + oligo_5 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O82035 + Ter + oligo_8 + oligo_15 + oligo_16 + oligo_18 + oligo_46 + oligo_11</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_J56012 + BBa_J64101 + BBa_K1847014 + P85916 + Ter + Ter + oligo_8 + oligo_28 + oligo_29 + oligo_13 + oligo_40 + oligo_10 + oligo_6 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_J56012 + BBa_J64101 + BBa_K1847014 + Q08350 + Q1LRV9 + Ter + Ter + oligo_28 + oligo_29 + oligo_13 + oligo_9 + oligo_39 + oligo_24 + oligo_6 + oligo_7</t>
-  </si>
-  <si>
-    <t>B8ZV94 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + Q08350 + Ter + oligo_8 + oligo_0 + oligo_32 + oligo_9 + oligo_10 + oligo_11</t>
-  </si>
-  <si>
-    <t>BBa_I13800 + BBa_I50041 + BBa_J56012 + BBa_J56012 + Q1LRV9 + Q57160 + Ter + Ter + oligo_0 + oligo_1 + oligo_17 + oligo_51 + oligo_48 + oligo_5 + oligo_6 + oligo_7</t>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + O33948_10000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P86029_20000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + O33948_20000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P86029_20000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P07773_10000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P86029_20000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P07773_10000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P07773_10000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P07773_20000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + O33948_10000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P07773_10000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O33948_30000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P07773_20000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P07773_30000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P07773_30000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P86029_20000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P86029_30000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P07773_30000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P86029_10000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P07773_30000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P86029_10000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P07773_10000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P86029_30000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + O33948_30000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + O33948_10000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + O33948_10000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P07773_30000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + O33948_20000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P86029_30000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + O33948_30000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P86029_30000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P07773_30000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P86029_20000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P86029_10000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + O33948_20000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + P86029_30000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + O33948_30000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P07773_20000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P07773_20000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O33948_20000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + O33948_30000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + O33948_10000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + O33948_10000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P07773_20000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P86029_10000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + O33948_20000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + P86029_10000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_J56012 + O33948_20000_gene + oligo_0 + oligo_1 + oligo_2 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_K1847014 + P86029_30000_gene + oligo_0 + oligo_10 + oligo_11 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P07773_10000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J64101 + BBa_K1847014 + O33948_30000_gene + oligo_0 + oligo_12 + oligo_13 + oligo_6 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50032 + BBa_J56012 + P07773_20000_gene + oligo_0 + oligo_10 + oligo_14 + oligo_3 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_J56012 + BBa_J64101 + P86029_10000_gene + oligo_0 + oligo_7 + oligo_8 + oligo_9 + oligo_4</t>
+  </si>
+  <si>
+    <t>BBa_B1006 + BBa_I13800 + BBa_I50041 + BBa_K1847014 + P86029_20000_gene + oligo_0 + oligo_1 + oligo_5 + oligo_6 + oligo_4</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1422,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1430,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1438,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1446,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1454,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1462,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1470,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1478,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1486,7 +1792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1494,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1502,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1510,7 +1816,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1518,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1526,7 +1832,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1534,7 +1840,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1542,7 +1848,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1550,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1558,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1566,7 +1872,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1574,7 +1880,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1582,7 +1888,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1590,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1598,7 +1904,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1606,7 +1912,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1614,7 +1920,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1622,7 +1928,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1630,7 +1936,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1638,7 +1944,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1646,7 +1952,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1654,7 +1960,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1662,7 +1968,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1670,7 +1976,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1678,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1686,7 +1992,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1694,7 +2000,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1702,7 +2008,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1710,7 +2016,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1718,7 +2024,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1726,7 +2032,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1734,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1742,7 +2048,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1750,7 +2056,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1758,7 +2064,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1766,7 +2072,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1774,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1782,7 +2088,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1790,7 +2096,55 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +2154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1811,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1819,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1827,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1835,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1843,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1851,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1859,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1867,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1875,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1883,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1891,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1899,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1907,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1915,7 +2269,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1923,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1931,7 +2285,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1939,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1947,7 +2301,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1955,7 +2309,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1963,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1971,7 +2325,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1979,7 +2333,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1987,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1995,7 +2349,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2003,7 +2357,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2011,7 +2365,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2019,7 +2373,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2027,7 +2381,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2035,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2043,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2051,7 +2405,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2059,7 +2413,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2067,7 +2421,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2075,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2083,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2091,7 +2445,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2099,7 +2453,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2107,7 +2461,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2115,7 +2469,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2123,7 +2477,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2131,7 +2485,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2139,7 +2493,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2147,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2155,7 +2509,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2163,7 +2517,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2171,7 +2525,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2179,7 +2533,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2187,7 +2541,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2195,7 +2549,55 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2607,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2213,426 +2615,130 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +2748,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2650,154 +2756,762 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B62" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B75" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B88" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>288</v>
+      </c>
+      <c r="B93" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +3521,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2829,10 +3543,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2840,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2851,10 +3565,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2862,10 +3576,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2873,10 +3587,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2884,10 +3598,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2895,10 +3609,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2906,10 +3620,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2917,10 +3631,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2928,10 +3642,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2939,10 +3653,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2950,10 +3664,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2961,10 +3675,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2972,10 +3686,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2983,10 +3697,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2994,10 +3708,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3005,10 +3719,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3016,10 +3730,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3027,10 +3741,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3038,10 +3752,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3049,10 +3763,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3060,10 +3774,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3071,10 +3785,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3082,10 +3796,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3093,10 +3807,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3104,10 +3818,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3115,10 +3829,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3126,10 +3840,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C29" t="s">
-        <v>319</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3137,10 +3851,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3148,10 +3862,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C31" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3159,10 +3873,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3170,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3181,10 +3895,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3192,10 +3906,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C35" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3203,10 +3917,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3214,10 +3928,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3225,10 +3939,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3236,10 +3950,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C39" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3247,10 +3961,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3258,10 +3972,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3269,10 +3983,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3280,10 +3994,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3291,10 +4005,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C44" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3302,10 +4016,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C45" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3313,10 +4027,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3324,10 +4038,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3335,10 +4049,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3346,10 +4060,76 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C49" t="s">
-        <v>339</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>387</v>
+      </c>
+      <c r="C50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
